--- a/AS1_genererad.xlsx
+++ b/AS1_genererad.xlsx
@@ -11336,9 +11336,7 @@
       <c r="K27" s="132" t="s">
         <v>414</v>
       </c>
-      <c r="L27" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L27" s="133" t="n"/>
       <c r="M27" s="134" t="n"/>
       <c r="N27" s="134" t="n"/>
       <c r="O27" s="134" t="n"/>
@@ -11369,9 +11367,7 @@
       <c r="K28" s="132" t="s">
         <v>416</v>
       </c>
-      <c r="L28" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L28" s="133" t="n"/>
       <c r="M28" s="134" t="n"/>
       <c r="N28" s="134" t="n"/>
       <c r="O28" s="134" t="n"/>
@@ -11666,9 +11662,7 @@
       <c r="K37" s="132" t="s">
         <v>423</v>
       </c>
-      <c r="L37" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L37" s="133" t="n"/>
       <c r="M37" s="134" t="n"/>
       <c r="N37" s="134" t="n"/>
       <c r="O37" s="134" t="n"/>
@@ -11732,9 +11726,7 @@
       <c r="K39" s="132" t="s">
         <v>425</v>
       </c>
-      <c r="L39" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L39" s="133" t="n"/>
       <c r="M39" s="134" t="n"/>
       <c r="N39" s="134" t="n"/>
       <c r="O39" s="134" t="n"/>
@@ -11798,9 +11790,7 @@
       <c r="K41" s="132" t="s">
         <v>427</v>
       </c>
-      <c r="L41" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L41" s="133" t="n"/>
       <c r="M41" s="134" t="n"/>
       <c r="N41" s="134" t="n"/>
       <c r="O41" s="134" t="n"/>
@@ -11864,9 +11854,7 @@
       <c r="K43" s="132" t="s">
         <v>429</v>
       </c>
-      <c r="L43" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L43" s="133" t="n"/>
       <c r="M43" s="134" t="n"/>
       <c r="N43" s="134" t="n"/>
       <c r="O43" s="134" t="n"/>
@@ -12557,9 +12545,7 @@
       <c r="K64" s="133" t="s">
         <v>469</v>
       </c>
-      <c r="L64" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L64" s="133" t="n"/>
       <c r="M64" s="134" t="n"/>
       <c r="N64" s="134" t="n"/>
       <c r="O64" s="134" t="n"/>
@@ -12656,9 +12642,7 @@
       <c r="K67" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="L67" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L67" s="133" t="n"/>
       <c r="M67" s="134" t="n"/>
       <c r="N67" s="134" t="n"/>
       <c r="O67" s="134" t="n"/>
@@ -12755,9 +12739,7 @@
       <c r="K70" s="133" t="s">
         <v>477</v>
       </c>
-      <c r="L70" s="133" t="s">
-        <v>90</v>
-      </c>
+      <c r="L70" s="133" t="n"/>
       <c r="M70" s="134" t="n"/>
       <c r="N70" s="134" t="n"/>
       <c r="O70" s="134" t="n"/>

--- a/AS1_genererad.xlsx
+++ b/AS1_genererad.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12165" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12165" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Fidelix" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="634">
   <si>
     <t>Bet</t>
   </si>
@@ -1115,6 +1115,9 @@
     <t>Anmärkning</t>
   </si>
   <si>
+    <t>2,78A</t>
+  </si>
+  <si>
     <t>Förenklad text-/skyltbilaga för avstalskund</t>
   </si>
   <si>
@@ -1790,6 +1793,18 @@
     <t>ÅTERSTÄLLNING</t>
   </si>
   <si>
+    <t>M=Materiallista</t>
+  </si>
+  <si>
+    <t>B=Beställningslista</t>
+  </si>
+  <si>
+    <t>L=Larmpunkt, om två, två larm</t>
+  </si>
+  <si>
+    <t>I=Inställningsväre, BV, Regleravviklse</t>
+  </si>
+  <si>
     <t>Benämningar</t>
   </si>
   <si>
@@ -1799,39 +1814,72 @@
     <t>Avluftsspjäll</t>
   </si>
   <si>
+    <t>M,B</t>
+  </si>
+  <si>
     <t>Abelko</t>
   </si>
   <si>
     <t>Avluftstemperatur</t>
   </si>
   <si>
+    <t>M,B,L,L</t>
+  </si>
+  <si>
+    <t>M,L,I</t>
+  </si>
+  <si>
     <t>Calectro</t>
   </si>
   <si>
     <t>Differenstryckgivare</t>
   </si>
   <si>
+    <t>M,B,L,L,I</t>
+  </si>
+  <si>
     <t>Danfoss</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>EkoVent</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>ESBE</t>
   </si>
   <si>
+    <t>M,B,L,I</t>
+  </si>
+  <si>
     <t>Flödesgivare</t>
   </si>
   <si>
+    <t>M,B,L,L,I,I</t>
+  </si>
+  <si>
     <t>Fläktwoods</t>
   </si>
   <si>
     <t>HAGAB</t>
   </si>
   <si>
+    <t>M,L</t>
+  </si>
+  <si>
     <t>Frånluftsspjäll</t>
   </si>
   <si>
+    <t>M,B,L</t>
+  </si>
+  <si>
+    <t>M,B,</t>
+  </si>
+  <si>
     <t>Schnieder</t>
   </si>
   <si>
@@ -1841,7 +1889,16 @@
     <t>Luftkvalitégivare</t>
   </si>
   <si>
+    <t>M,L,I,I</t>
+  </si>
+  <si>
+    <t>M,B,L,L,L,I,I</t>
+  </si>
+  <si>
     <t>Spjällställdon</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>Tilluftsspjäll</t>
@@ -1879,7 +1936,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -2030,6 +2087,11 @@
       <family val="2"/>
       <color theme="4"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <color indexed="81"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2412,7 +2474,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2663,6 +2725,7 @@
     <xf applyAlignment="1" borderId="12" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2712,6 +2775,33 @@
 Kommentar:
     I ordning utan mellanrum, t.ex.
 Summalarm,Driftorder,Styrsignal</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={99DDA8D6-1B32-4679-8E3A-A05D6DC02594}</author>
+    <author>tc={A27BB58C-A41C-4D91-A783-3F647B00F5B3}</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B45" shapeId="0">
+      <text>
+        <t>[Trådad kommentar]
+I din version av Excel kan du läsa den här trådade kommentaren, men eventuella ändringar i den tas bort om filen öppnas i en senare version av Excel. Läs mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Verkningsgradslarm</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="B72" shapeId="0">
+      <text>
+        <t>[Trådad kommentar]
+I din version av Excel kan du läsa den här trådade kommentaren, men eventuella ändringar i den tas bort om filen öppnas i en senare version av Excel. Läs mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Verkningsgradslarm</t>
       </text>
     </comment>
   </commentList>
@@ -4510,7 +4600,7 @@
       <c r="D105" s="67" t="n"/>
       <c r="F105" s="66" t="n"/>
     </row>
-    <row customHeight="1" ht="22.5" r="106" s="137" spans="1:8">
+    <row customHeight="1" ht="22.5" r="106" s="138" spans="1:8">
       <c r="A106" s="95" t="s">
         <v>44</v>
       </c>
@@ -5253,7 +5343,7 @@
   </sheetPr>
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C112" xSplit="2" ySplit="6"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A7" pane="bottomLeft" sqref="A7"/>
@@ -5262,13 +5352,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="137" width="3.140625"/>
-    <col customWidth="1" max="2" min="2" style="137" width="32.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="137" width="31.5703125"/>
-    <col customWidth="1" max="4" min="4" style="137" width="31.5703125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="137" width="35.28515625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="137" width="37.140625"/>
-    <col customWidth="1" max="7" min="7" style="137" width="37.140625"/>
+    <col customWidth="1" max="1" min="1" style="138" width="3.140625"/>
+    <col customWidth="1" max="2" min="2" style="138" width="32.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="138" width="31.5703125"/>
+    <col customWidth="1" max="4" min="4" style="138" width="31.5703125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="138" width="35.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="138" width="37.140625"/>
+    <col customWidth="1" max="7" min="7" style="138" width="37.140625"/>
     <col bestFit="1" customWidth="1" max="8" min="8" style="51" width="44.85546875"/>
     <col bestFit="1" customWidth="1" max="9" min="9" style="87" width="12.28515625"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="1" width="8.28515625"/>
@@ -5276,7 +5366,7 @@
     <col bestFit="1" customWidth="1" max="12" min="12" style="1" width="10"/>
     <col bestFit="1" customWidth="1" max="13" min="13" style="1" width="8"/>
     <col bestFit="1" customWidth="1" max="14" min="14" style="1" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="137" width="8.28515625"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="138" width="8.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -8959,7 +9049,7 @@
     <col customWidth="1" max="16384" min="22" style="14" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.95" r="1" s="137" spans="1:10">
+    <row customHeight="1" ht="15.95" r="1" s="138" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>341</v>
       </c>
@@ -8985,7 +9075,7 @@
       <c r="I2" s="18" t="n"/>
       <c r="J2" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="3" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="3" s="138" spans="1:10">
       <c r="A3" s="19" t="s">
         <v>342</v>
       </c>
@@ -9017,7 +9107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="4" s="138" spans="1:10">
       <c r="A4" s="20" t="n"/>
       <c r="B4" s="20" t="n"/>
       <c r="C4" s="20" t="s">
@@ -9041,7 +9131,7 @@
       <c r="I4" s="21" t="n"/>
       <c r="J4" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="5" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="5" s="138" spans="1:10">
       <c r="A5" s="111" t="n"/>
       <c r="B5" s="111" t="n"/>
       <c r="C5" s="20" t="n"/>
@@ -9053,7 +9143,7 @@
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="6" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="6" s="138" spans="1:10">
       <c r="A6" s="111" t="n"/>
       <c r="B6" s="111" t="n"/>
       <c r="C6" s="20" t="n"/>
@@ -9065,7 +9155,7 @@
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="7" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="7" s="138" spans="1:10">
       <c r="A7" s="111" t="n"/>
       <c r="B7" s="111" t="n"/>
       <c r="C7" s="20" t="s">
@@ -9079,7 +9169,7 @@
       <c r="I7" s="21" t="n"/>
       <c r="J7" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="8" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="8" s="138" spans="1:10">
       <c r="A8" s="111" t="n"/>
       <c r="B8" s="111" t="n"/>
       <c r="C8" s="22" t="n"/>
@@ -9091,7 +9181,7 @@
       <c r="I8" s="22" t="n"/>
       <c r="J8" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="9" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="9" s="138" spans="1:10">
       <c r="A9" s="111" t="n"/>
       <c r="B9" s="111" t="n"/>
       <c r="C9" s="22" t="n"/>
@@ -9103,7 +9193,7 @@
       <c r="I9" s="22" t="n"/>
       <c r="J9" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="10" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="10" s="138" spans="1:10">
       <c r="A10" s="111" t="n"/>
       <c r="B10" s="111" t="n"/>
       <c r="C10" s="21" t="n"/>
@@ -9115,7 +9205,7 @@
       <c r="I10" s="22" t="n"/>
       <c r="J10" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="11" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="11" s="138" spans="1:10">
       <c r="A11" s="111" t="n"/>
       <c r="B11" s="111" t="n"/>
       <c r="C11" s="22" t="n"/>
@@ -9127,7 +9217,7 @@
       <c r="I11" s="22" t="n"/>
       <c r="J11" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="12" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="12" s="138" spans="1:10">
       <c r="A12" s="111" t="n"/>
       <c r="B12" s="111" t="n"/>
       <c r="C12" s="22" t="n"/>
@@ -9139,7 +9229,7 @@
       <c r="I12" s="22" t="n"/>
       <c r="J12" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="13" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="13" s="138" spans="1:10">
       <c r="A13" s="111" t="n"/>
       <c r="B13" s="111" t="n"/>
       <c r="C13" s="22" t="n"/>
@@ -9151,7 +9241,7 @@
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="14" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="14" s="138" spans="1:10">
       <c r="A14" s="111" t="n"/>
       <c r="B14" s="111" t="n"/>
       <c r="C14" s="22" t="n"/>
@@ -9163,7 +9253,7 @@
       <c r="I14" s="22" t="n"/>
       <c r="J14" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="15" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="15" s="138" spans="1:10">
       <c r="A15" s="111" t="n"/>
       <c r="B15" s="111" t="n"/>
       <c r="C15" s="22" t="n"/>
@@ -9175,7 +9265,7 @@
       <c r="I15" s="22" t="n"/>
       <c r="J15" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="16" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="16" s="138" spans="1:10">
       <c r="A16" s="111" t="n"/>
       <c r="B16" s="111" t="n"/>
       <c r="C16" s="22" t="n"/>
@@ -9187,7 +9277,7 @@
       <c r="I16" s="22" t="n"/>
       <c r="J16" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="17" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="17" s="138" spans="1:10">
       <c r="A17" s="111" t="n"/>
       <c r="B17" s="111" t="n"/>
       <c r="C17" s="22" t="n"/>
@@ -9199,7 +9289,7 @@
       <c r="I17" s="22" t="n"/>
       <c r="J17" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="18" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="18" s="138" spans="1:10">
       <c r="A18" s="111" t="n"/>
       <c r="B18" s="111" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -9211,7 +9301,7 @@
       <c r="I18" s="22" t="n"/>
       <c r="J18" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="19" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="19" s="138" spans="1:10">
       <c r="A19" s="111" t="n"/>
       <c r="B19" s="111" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -9223,7 +9313,7 @@
       <c r="I19" s="22" t="n"/>
       <c r="J19" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="20" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="20" s="138" spans="1:10">
       <c r="A20" s="111" t="n"/>
       <c r="B20" s="111" t="n"/>
       <c r="C20" s="22" t="n"/>
@@ -9235,7 +9325,7 @@
       <c r="I20" s="22" t="n"/>
       <c r="J20" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="21" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="21" s="138" spans="1:10">
       <c r="A21" s="111" t="n"/>
       <c r="B21" s="111" t="n"/>
       <c r="C21" s="22" t="n"/>
@@ -9247,7 +9337,7 @@
       <c r="I21" s="22" t="n"/>
       <c r="J21" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="22" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="22" s="138" spans="1:10">
       <c r="A22" s="111" t="n"/>
       <c r="B22" s="111" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -9259,7 +9349,7 @@
       <c r="I22" s="22" t="n"/>
       <c r="J22" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="23" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="23" s="138" spans="1:10">
       <c r="A23" s="111" t="n"/>
       <c r="B23" s="111" t="n"/>
       <c r="C23" s="22" t="n"/>
@@ -9271,7 +9361,7 @@
       <c r="I23" s="22" t="n"/>
       <c r="J23" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="24" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="24" s="138" spans="1:10">
       <c r="A24" s="111" t="n"/>
       <c r="B24" s="111" t="n"/>
       <c r="C24" s="22" t="n"/>
@@ -9283,7 +9373,7 @@
       <c r="I24" s="22" t="n"/>
       <c r="J24" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="25" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="25" s="138" spans="1:10">
       <c r="A25" s="111" t="n"/>
       <c r="B25" s="111" t="n"/>
       <c r="C25" s="22" t="n"/>
@@ -9295,7 +9385,7 @@
       <c r="I25" s="22" t="n"/>
       <c r="J25" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="26" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="26" s="138" spans="1:10">
       <c r="A26" s="111" t="n"/>
       <c r="B26" s="111" t="n"/>
       <c r="C26" s="22" t="n"/>
@@ -9307,7 +9397,7 @@
       <c r="I26" s="22" t="n"/>
       <c r="J26" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="27" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="27" s="138" spans="1:10">
       <c r="A27" s="111" t="n"/>
       <c r="B27" s="111" t="n"/>
       <c r="C27" s="22" t="n"/>
@@ -9319,7 +9409,7 @@
       <c r="I27" s="22" t="n"/>
       <c r="J27" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="28" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="28" s="138" spans="1:10">
       <c r="A28" s="111" t="n"/>
       <c r="B28" s="111" t="n"/>
       <c r="C28" s="22" t="n"/>
@@ -9331,7 +9421,7 @@
       <c r="I28" s="22" t="n"/>
       <c r="J28" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="29" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="29" s="138" spans="1:10">
       <c r="A29" s="111" t="n"/>
       <c r="B29" s="111" t="n"/>
       <c r="C29" s="22" t="n"/>
@@ -9343,7 +9433,7 @@
       <c r="I29" s="22" t="n"/>
       <c r="J29" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="30" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="30" s="138" spans="1:10">
       <c r="A30" s="111" t="n"/>
       <c r="B30" s="111" t="n"/>
       <c r="C30" s="22" t="n"/>
@@ -9355,7 +9445,7 @@
       <c r="I30" s="22" t="n"/>
       <c r="J30" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="31" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="31" s="138" spans="1:10">
       <c r="A31" s="111" t="n"/>
       <c r="B31" s="111" t="n"/>
       <c r="C31" s="22" t="n"/>
@@ -9367,7 +9457,7 @@
       <c r="I31" s="22" t="n"/>
       <c r="J31" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="32" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="32" s="138" spans="1:10">
       <c r="A32" s="111" t="n"/>
       <c r="B32" s="111" t="n"/>
       <c r="C32" s="22" t="n"/>
@@ -9379,7 +9469,7 @@
       <c r="I32" s="22" t="n"/>
       <c r="J32" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="33" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="33" s="138" spans="1:10">
       <c r="A33" s="111" t="n"/>
       <c r="B33" s="111" t="n"/>
       <c r="C33" s="22" t="n"/>
@@ -9391,7 +9481,7 @@
       <c r="I33" s="22" t="n"/>
       <c r="J33" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="34" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="34" s="138" spans="1:10">
       <c r="A34" s="111" t="n"/>
       <c r="B34" s="111" t="n"/>
       <c r="C34" s="22" t="n"/>
@@ -9403,7 +9493,7 @@
       <c r="I34" s="22" t="n"/>
       <c r="J34" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="35" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="35" s="138" spans="1:10">
       <c r="A35" s="111" t="n"/>
       <c r="B35" s="111" t="n"/>
       <c r="C35" s="22" t="n"/>
@@ -9415,7 +9505,7 @@
       <c r="I35" s="22" t="n"/>
       <c r="J35" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="36" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="36" s="138" spans="1:10">
       <c r="A36" s="111" t="n"/>
       <c r="B36" s="111" t="n"/>
       <c r="C36" s="22" t="n"/>
@@ -9427,7 +9517,7 @@
       <c r="I36" s="22" t="n"/>
       <c r="J36" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="37" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="37" s="138" spans="1:10">
       <c r="A37" s="111" t="n"/>
       <c r="B37" s="111" t="n"/>
       <c r="C37" s="22" t="n"/>
@@ -9439,7 +9529,7 @@
       <c r="I37" s="22" t="n"/>
       <c r="J37" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="38" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="38" s="138" spans="1:10">
       <c r="A38" s="111" t="n"/>
       <c r="B38" s="111" t="n"/>
       <c r="C38" s="22" t="n"/>
@@ -9451,7 +9541,7 @@
       <c r="I38" s="22" t="n"/>
       <c r="J38" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="39" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="39" s="138" spans="1:10">
       <c r="A39" s="111" t="n"/>
       <c r="B39" s="111" t="n"/>
       <c r="C39" s="22" t="n"/>
@@ -9463,7 +9553,7 @@
       <c r="I39" s="22" t="n"/>
       <c r="J39" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="40" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="40" s="138" spans="1:10">
       <c r="A40" s="111" t="n"/>
       <c r="B40" s="111" t="n"/>
       <c r="C40" s="22" t="n"/>
@@ -9475,7 +9565,7 @@
       <c r="I40" s="22" t="n"/>
       <c r="J40" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="41" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="41" s="138" spans="1:10">
       <c r="A41" s="111" t="n"/>
       <c r="B41" s="111" t="n"/>
       <c r="C41" s="22" t="n"/>
@@ -9487,7 +9577,7 @@
       <c r="I41" s="22" t="n"/>
       <c r="J41" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="42" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="42" s="138" spans="1:10">
       <c r="A42" s="111" t="n"/>
       <c r="B42" s="111" t="n"/>
       <c r="C42" s="22" t="n"/>
@@ -9499,7 +9589,7 @@
       <c r="I42" s="22" t="n"/>
       <c r="J42" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="43" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="43" s="138" spans="1:10">
       <c r="A43" s="111" t="n"/>
       <c r="B43" s="111" t="n"/>
       <c r="C43" s="22" t="n"/>
@@ -9511,7 +9601,7 @@
       <c r="I43" s="22" t="n"/>
       <c r="J43" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="44" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="44" s="138" spans="1:10">
       <c r="A44" s="111" t="n"/>
       <c r="B44" s="111" t="n"/>
       <c r="C44" s="22" t="n"/>
@@ -9523,7 +9613,7 @@
       <c r="I44" s="22" t="n"/>
       <c r="J44" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="45" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="45" s="138" spans="1:10">
       <c r="A45" s="111" t="n"/>
       <c r="B45" s="111" t="n"/>
       <c r="C45" s="22" t="n"/>
@@ -9535,7 +9625,7 @@
       <c r="I45" s="22" t="n"/>
       <c r="J45" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="46" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="46" s="138" spans="1:10">
       <c r="A46" s="111" t="n"/>
       <c r="B46" s="111" t="n"/>
       <c r="C46" s="22" t="n"/>
@@ -9547,7 +9637,7 @@
       <c r="I46" s="22" t="n"/>
       <c r="J46" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="47" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="47" s="138" spans="1:10">
       <c r="A47" s="111" t="n"/>
       <c r="B47" s="111" t="n"/>
       <c r="C47" s="22" t="n"/>
@@ -9559,7 +9649,7 @@
       <c r="I47" s="22" t="n"/>
       <c r="J47" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="48" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="48" s="138" spans="1:10">
       <c r="A48" s="111" t="n"/>
       <c r="B48" s="111" t="n"/>
       <c r="C48" s="22" t="n"/>
@@ -9571,7 +9661,7 @@
       <c r="I48" s="22" t="n"/>
       <c r="J48" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="49" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="49" s="138" spans="1:10">
       <c r="A49" s="111" t="n"/>
       <c r="B49" s="111" t="n"/>
       <c r="C49" s="22" t="n"/>
@@ -9583,7 +9673,7 @@
       <c r="I49" s="22" t="n"/>
       <c r="J49" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="50" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="50" s="138" spans="1:10">
       <c r="A50" s="111" t="n"/>
       <c r="B50" s="111" t="n"/>
       <c r="C50" s="22" t="n"/>
@@ -9595,7 +9685,7 @@
       <c r="I50" s="22" t="n"/>
       <c r="J50" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="51" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="51" s="138" spans="1:10">
       <c r="A51" s="111" t="n"/>
       <c r="B51" s="111" t="n"/>
       <c r="C51" s="22" t="n"/>
@@ -9607,7 +9697,7 @@
       <c r="I51" s="22" t="n"/>
       <c r="J51" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="52" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="52" s="138" spans="1:10">
       <c r="A52" s="111" t="n"/>
       <c r="B52" s="111" t="n"/>
       <c r="C52" s="22" t="n"/>
@@ -9619,7 +9709,7 @@
       <c r="I52" s="22" t="n"/>
       <c r="J52" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="53" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="53" s="138" spans="1:10">
       <c r="A53" s="111" t="n"/>
       <c r="B53" s="111" t="n"/>
       <c r="C53" s="22" t="n"/>
@@ -9631,7 +9721,7 @@
       <c r="I53" s="22" t="n"/>
       <c r="J53" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="54" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="54" s="138" spans="1:10">
       <c r="A54" s="111" t="n"/>
       <c r="B54" s="111" t="n"/>
       <c r="C54" s="22" t="n"/>
@@ -9643,7 +9733,7 @@
       <c r="I54" s="22" t="n"/>
       <c r="J54" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="55" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="55" s="138" spans="1:10">
       <c r="A55" s="111" t="n"/>
       <c r="B55" s="111" t="n"/>
       <c r="C55" s="22" t="n"/>
@@ -9655,7 +9745,7 @@
       <c r="I55" s="22" t="n"/>
       <c r="J55" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="56" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="56" s="138" spans="1:10">
       <c r="A56" s="111" t="n"/>
       <c r="B56" s="111" t="n"/>
       <c r="C56" s="22" t="n"/>
@@ -9667,7 +9757,7 @@
       <c r="I56" s="22" t="n"/>
       <c r="J56" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="57" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="57" s="138" spans="1:10">
       <c r="A57" s="111" t="n"/>
       <c r="B57" s="111" t="n"/>
       <c r="C57" s="22" t="n"/>
@@ -9679,7 +9769,7 @@
       <c r="I57" s="22" t="n"/>
       <c r="J57" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="58" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="58" s="138" spans="1:10">
       <c r="A58" s="111" t="n"/>
       <c r="B58" s="111" t="n"/>
       <c r="C58" s="22" t="n"/>
@@ -9691,7 +9781,7 @@
       <c r="I58" s="22" t="n"/>
       <c r="J58" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="59" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="59" s="138" spans="1:10">
       <c r="A59" s="111" t="n"/>
       <c r="B59" s="111" t="n"/>
       <c r="C59" s="22" t="n"/>
@@ -9703,7 +9793,7 @@
       <c r="I59" s="22" t="n"/>
       <c r="J59" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="60" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="60" s="138" spans="1:10">
       <c r="A60" s="111" t="n"/>
       <c r="B60" s="111" t="n"/>
       <c r="C60" s="22" t="n"/>
@@ -9715,7 +9805,7 @@
       <c r="I60" s="22" t="n"/>
       <c r="J60" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="61" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="61" s="138" spans="1:10">
       <c r="A61" s="111" t="n"/>
       <c r="B61" s="111" t="n"/>
       <c r="C61" s="22" t="n"/>
@@ -9727,7 +9817,7 @@
       <c r="I61" s="22" t="n"/>
       <c r="J61" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="62" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="62" s="138" spans="1:10">
       <c r="A62" s="111" t="n"/>
       <c r="B62" s="111" t="n"/>
       <c r="C62" s="22" t="n"/>
@@ -9739,7 +9829,7 @@
       <c r="I62" s="22" t="n"/>
       <c r="J62" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="63" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="63" s="138" spans="1:10">
       <c r="A63" s="111" t="n"/>
       <c r="B63" s="111" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -9751,7 +9841,7 @@
       <c r="I63" s="22" t="n"/>
       <c r="J63" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="64" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="64" s="138" spans="1:10">
       <c r="A64" s="111" t="n"/>
       <c r="B64" s="111" t="n"/>
       <c r="C64" s="22" t="n"/>
@@ -9763,7 +9853,7 @@
       <c r="I64" s="22" t="n"/>
       <c r="J64" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="65" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="65" s="138" spans="1:10">
       <c r="A65" s="111" t="n"/>
       <c r="B65" s="111" t="n"/>
       <c r="C65" s="22" t="n"/>
@@ -9775,7 +9865,7 @@
       <c r="I65" s="22" t="n"/>
       <c r="J65" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="66" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="66" s="138" spans="1:10">
       <c r="A66" s="111" t="n"/>
       <c r="B66" s="111" t="n"/>
       <c r="C66" s="22" t="n"/>
@@ -9787,7 +9877,7 @@
       <c r="I66" s="22" t="n"/>
       <c r="J66" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="67" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="67" s="138" spans="1:10">
       <c r="A67" s="111" t="n"/>
       <c r="B67" s="111" t="n"/>
       <c r="C67" s="22" t="n"/>
@@ -9799,7 +9889,7 @@
       <c r="I67" s="22" t="n"/>
       <c r="J67" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="68" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="68" s="138" spans="1:10">
       <c r="A68" s="111" t="n"/>
       <c r="B68" s="111" t="n"/>
       <c r="C68" s="22" t="n"/>
@@ -9811,7 +9901,7 @@
       <c r="I68" s="22" t="n"/>
       <c r="J68" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="69" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="69" s="138" spans="1:10">
       <c r="A69" s="111" t="n"/>
       <c r="B69" s="111" t="n"/>
       <c r="C69" s="22" t="n"/>
@@ -9823,7 +9913,7 @@
       <c r="I69" s="22" t="n"/>
       <c r="J69" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="70" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="70" s="138" spans="1:10">
       <c r="A70" s="111" t="n"/>
       <c r="B70" s="111" t="n"/>
       <c r="C70" s="22" t="n"/>
@@ -9835,7 +9925,7 @@
       <c r="I70" s="22" t="n"/>
       <c r="J70" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="71" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="71" s="138" spans="1:10">
       <c r="A71" s="111" t="n"/>
       <c r="B71" s="111" t="n"/>
       <c r="C71" s="22" t="n"/>
@@ -9847,7 +9937,7 @@
       <c r="I71" s="22" t="n"/>
       <c r="J71" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="72" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="72" s="138" spans="1:10">
       <c r="A72" s="111" t="n"/>
       <c r="B72" s="111" t="n"/>
       <c r="C72" s="22" t="n"/>
@@ -9859,7 +9949,7 @@
       <c r="I72" s="22" t="n"/>
       <c r="J72" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="73" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="73" s="138" spans="1:10">
       <c r="A73" s="111" t="n"/>
       <c r="B73" s="111" t="n"/>
       <c r="C73" s="22" t="n"/>
@@ -9871,7 +9961,7 @@
       <c r="I73" s="22" t="n"/>
       <c r="J73" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="74" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="74" s="138" spans="1:10">
       <c r="A74" s="111" t="n"/>
       <c r="B74" s="111" t="n"/>
       <c r="C74" s="22" t="n"/>
@@ -9883,7 +9973,7 @@
       <c r="I74" s="22" t="n"/>
       <c r="J74" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="75" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="75" s="138" spans="1:10">
       <c r="A75" s="111" t="n"/>
       <c r="B75" s="111" t="n"/>
       <c r="C75" s="22" t="n"/>
@@ -9895,7 +9985,7 @@
       <c r="I75" s="22" t="n"/>
       <c r="J75" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="76" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="76" s="138" spans="1:10">
       <c r="A76" s="111" t="n"/>
       <c r="B76" s="111" t="n"/>
       <c r="C76" s="22" t="n"/>
@@ -9907,7 +9997,7 @@
       <c r="I76" s="22" t="n"/>
       <c r="J76" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="77" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="77" s="138" spans="1:10">
       <c r="A77" s="111" t="n"/>
       <c r="B77" s="111" t="n"/>
       <c r="C77" s="22" t="n"/>
@@ -9919,7 +10009,7 @@
       <c r="I77" s="22" t="n"/>
       <c r="J77" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="78" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="78" s="138" spans="1:10">
       <c r="A78" s="111" t="n"/>
       <c r="B78" s="111" t="n"/>
       <c r="C78" s="22" t="n"/>
@@ -9931,7 +10021,7 @@
       <c r="I78" s="22" t="n"/>
       <c r="J78" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="79" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="79" s="138" spans="1:10">
       <c r="A79" s="111" t="n"/>
       <c r="B79" s="111" t="n"/>
       <c r="C79" s="22" t="n"/>
@@ -9943,7 +10033,7 @@
       <c r="I79" s="22" t="n"/>
       <c r="J79" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="80" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="80" s="138" spans="1:10">
       <c r="A80" s="111" t="n"/>
       <c r="B80" s="111" t="n"/>
       <c r="C80" s="22" t="n"/>
@@ -9955,7 +10045,7 @@
       <c r="I80" s="22" t="n"/>
       <c r="J80" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="81" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="81" s="138" spans="1:10">
       <c r="A81" s="111" t="n"/>
       <c r="B81" s="111" t="n"/>
       <c r="C81" s="22" t="n"/>
@@ -9967,7 +10057,7 @@
       <c r="I81" s="22" t="n"/>
       <c r="J81" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="82" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="82" s="138" spans="1:10">
       <c r="A82" s="111" t="n"/>
       <c r="B82" s="111" t="n"/>
       <c r="C82" s="22" t="n"/>
@@ -9979,7 +10069,7 @@
       <c r="I82" s="22" t="n"/>
       <c r="J82" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="83" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="83" s="138" spans="1:10">
       <c r="A83" s="111" t="n"/>
       <c r="B83" s="111" t="n"/>
       <c r="C83" s="22" t="n"/>
@@ -9991,7 +10081,7 @@
       <c r="I83" s="22" t="n"/>
       <c r="J83" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="84" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="84" s="138" spans="1:10">
       <c r="A84" s="111" t="n"/>
       <c r="B84" s="111" t="n"/>
       <c r="C84" s="22" t="n"/>
@@ -10003,7 +10093,7 @@
       <c r="I84" s="22" t="n"/>
       <c r="J84" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="85" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="85" s="138" spans="1:10">
       <c r="A85" s="111" t="n"/>
       <c r="B85" s="111" t="n"/>
       <c r="C85" s="22" t="n"/>
@@ -10015,7 +10105,7 @@
       <c r="I85" s="22" t="n"/>
       <c r="J85" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="86" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="86" s="138" spans="1:10">
       <c r="A86" s="111" t="n"/>
       <c r="B86" s="111" t="n"/>
       <c r="C86" s="22" t="n"/>
@@ -10027,7 +10117,7 @@
       <c r="I86" s="22" t="n"/>
       <c r="J86" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="87" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="87" s="138" spans="1:10">
       <c r="A87" s="111" t="n"/>
       <c r="B87" s="111" t="n"/>
       <c r="C87" s="22" t="n"/>
@@ -10039,7 +10129,7 @@
       <c r="I87" s="22" t="n"/>
       <c r="J87" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="88" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="88" s="138" spans="1:10">
       <c r="A88" s="111" t="n"/>
       <c r="B88" s="111" t="n"/>
       <c r="C88" s="22" t="n"/>
@@ -10051,7 +10141,7 @@
       <c r="I88" s="22" t="n"/>
       <c r="J88" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="89" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="89" s="138" spans="1:10">
       <c r="A89" s="111" t="n"/>
       <c r="B89" s="111" t="n"/>
       <c r="C89" s="22" t="n"/>
@@ -10063,7 +10153,7 @@
       <c r="I89" s="22" t="n"/>
       <c r="J89" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="90" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="90" s="138" spans="1:10">
       <c r="A90" s="111" t="n"/>
       <c r="B90" s="111" t="n"/>
       <c r="C90" s="22" t="n"/>
@@ -10075,7 +10165,7 @@
       <c r="I90" s="22" t="n"/>
       <c r="J90" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="91" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="91" s="138" spans="1:10">
       <c r="A91" s="111" t="n"/>
       <c r="B91" s="111" t="n"/>
       <c r="C91" s="22" t="n"/>
@@ -10087,7 +10177,7 @@
       <c r="I91" s="22" t="n"/>
       <c r="J91" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="92" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="92" s="138" spans="1:10">
       <c r="A92" s="111" t="n"/>
       <c r="B92" s="111" t="n"/>
       <c r="C92" s="22" t="n"/>
@@ -10099,7 +10189,7 @@
       <c r="I92" s="22" t="n"/>
       <c r="J92" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="93" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="93" s="138" spans="1:10">
       <c r="A93" s="111" t="n"/>
       <c r="B93" s="111" t="n"/>
       <c r="C93" s="22" t="n"/>
@@ -10111,7 +10201,7 @@
       <c r="I93" s="22" t="n"/>
       <c r="J93" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="94" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="94" s="138" spans="1:10">
       <c r="A94" s="111" t="n"/>
       <c r="B94" s="111" t="n"/>
       <c r="C94" s="22" t="n"/>
@@ -10123,7 +10213,7 @@
       <c r="I94" s="22" t="n"/>
       <c r="J94" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="95" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="95" s="138" spans="1:10">
       <c r="A95" s="111" t="n"/>
       <c r="B95" s="111" t="n"/>
       <c r="C95" s="22" t="n"/>
@@ -10135,7 +10225,7 @@
       <c r="I95" s="22" t="n"/>
       <c r="J95" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="96" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="96" s="138" spans="1:10">
       <c r="A96" s="111" t="n"/>
       <c r="B96" s="111" t="n"/>
       <c r="C96" s="22" t="n"/>
@@ -10147,7 +10237,7 @@
       <c r="I96" s="22" t="n"/>
       <c r="J96" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="97" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="97" s="138" spans="1:10">
       <c r="A97" s="111" t="n"/>
       <c r="B97" s="111" t="n"/>
       <c r="C97" s="22" t="n"/>
@@ -10159,7 +10249,7 @@
       <c r="I97" s="22" t="n"/>
       <c r="J97" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="98" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="98" s="138" spans="1:10">
       <c r="A98" s="111" t="n"/>
       <c r="B98" s="111" t="n"/>
       <c r="C98" s="22" t="n"/>
@@ -10171,7 +10261,7 @@
       <c r="I98" s="22" t="n"/>
       <c r="J98" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="99" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="99" s="138" spans="1:10">
       <c r="A99" s="111" t="n"/>
       <c r="B99" s="111" t="n"/>
       <c r="C99" s="22" t="n"/>
@@ -10183,7 +10273,7 @@
       <c r="I99" s="22" t="n"/>
       <c r="J99" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="100" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="100" s="138" spans="1:10">
       <c r="A100" s="111" t="n"/>
       <c r="B100" s="111" t="n"/>
       <c r="C100" s="22" t="n"/>
@@ -10195,7 +10285,7 @@
       <c r="I100" s="22" t="n"/>
       <c r="J100" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="101" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="101" s="138" spans="1:10">
       <c r="A101" s="111" t="n"/>
       <c r="B101" s="111" t="n"/>
       <c r="C101" s="22" t="n"/>
@@ -10207,7 +10297,7 @@
       <c r="I101" s="22" t="n"/>
       <c r="J101" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="102" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="102" s="138" spans="1:10">
       <c r="A102" s="111" t="n"/>
       <c r="B102" s="111" t="n"/>
       <c r="C102" s="22" t="n"/>
@@ -10219,7 +10309,7 @@
       <c r="I102" s="22" t="n"/>
       <c r="J102" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="103" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="103" s="138" spans="1:10">
       <c r="A103" s="111" t="n"/>
       <c r="B103" s="111" t="n"/>
       <c r="C103" s="22" t="n"/>
@@ -10231,7 +10321,7 @@
       <c r="I103" s="22" t="n"/>
       <c r="J103" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="104" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="104" s="138" spans="1:10">
       <c r="A104" s="111" t="n"/>
       <c r="B104" s="111" t="n"/>
       <c r="C104" s="22" t="n"/>
@@ -10243,7 +10333,7 @@
       <c r="I104" s="22" t="n"/>
       <c r="J104" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="105" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="105" s="138" spans="1:10">
       <c r="A105" s="111" t="n"/>
       <c r="B105" s="111" t="n"/>
       <c r="C105" s="22" t="n"/>
@@ -10255,7 +10345,7 @@
       <c r="I105" s="22" t="n"/>
       <c r="J105" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="106" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="106" s="138" spans="1:10">
       <c r="A106" s="111" t="n"/>
       <c r="B106" s="111" t="n"/>
       <c r="C106" s="22" t="n"/>
@@ -10267,7 +10357,7 @@
       <c r="I106" s="22" t="n"/>
       <c r="J106" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="107" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="107" s="138" spans="1:10">
       <c r="A107" s="111" t="n"/>
       <c r="B107" s="111" t="n"/>
       <c r="C107" s="22" t="n"/>
@@ -10279,7 +10369,7 @@
       <c r="I107" s="22" t="n"/>
       <c r="J107" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="108" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="108" s="138" spans="1:10">
       <c r="A108" s="111" t="n"/>
       <c r="B108" s="111" t="n"/>
       <c r="C108" s="22" t="n"/>
@@ -10291,7 +10381,7 @@
       <c r="I108" s="22" t="n"/>
       <c r="J108" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="109" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="109" s="138" spans="1:10">
       <c r="A109" s="111" t="n"/>
       <c r="B109" s="111" t="n"/>
       <c r="C109" s="22" t="n"/>
@@ -10303,7 +10393,7 @@
       <c r="I109" s="22" t="n"/>
       <c r="J109" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="110" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="110" s="138" spans="1:10">
       <c r="A110" s="111" t="n"/>
       <c r="B110" s="111" t="n"/>
       <c r="C110" s="22" t="n"/>
@@ -10315,7 +10405,7 @@
       <c r="I110" s="22" t="n"/>
       <c r="J110" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="111" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="111" s="138" spans="1:10">
       <c r="A111" s="22" t="n"/>
       <c r="B111" s="22" t="n"/>
       <c r="C111" s="22" t="n"/>
@@ -10327,7 +10417,7 @@
       <c r="I111" s="22" t="n"/>
       <c r="J111" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="112" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="112" s="138" spans="1:10">
       <c r="A112" s="22" t="n"/>
       <c r="B112" s="22" t="n"/>
       <c r="C112" s="22" t="n"/>
@@ -10339,7 +10429,7 @@
       <c r="I112" s="22" t="n"/>
       <c r="J112" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="113" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="113" s="138" spans="1:10">
       <c r="A113" s="22" t="n"/>
       <c r="B113" s="22" t="n"/>
       <c r="C113" s="22" t="n"/>
@@ -10351,140 +10441,140 @@
       <c r="I113" s="22" t="n"/>
       <c r="J113" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="114" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="115" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="116" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="117" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="118" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="119" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="120" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="121" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="122" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="123" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="124" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="125" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="126" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="127" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="128" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="129" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="130" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="131" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="132" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="133" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="134" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="135" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="136" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="137" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="138" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="139" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="140" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="141" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="142" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="143" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="144" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="145" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="146" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="147" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="148" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="149" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="150" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="151" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="152" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="153" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="154" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="155" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="156" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="157" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="158" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="159" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="160" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="161" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="162" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="163" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="164" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="165" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="166" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="167" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="168" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="169" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="170" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="171" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="172" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="173" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="174" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="175" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="176" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="177" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="178" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="179" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="180" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="181" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="182" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="183" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="184" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="185" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="186" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="187" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="188" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="189" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="190" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="191" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="192" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="193" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="194" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="195" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="196" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="197" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="198" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="199" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="200" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="201" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="202" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="203" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="204" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="205" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="206" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="207" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="208" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="209" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="210" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="211" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="212" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="213" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="214" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="215" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="216" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="217" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="218" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="219" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="220" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="221" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="222" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="223" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="224" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="225" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="226" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="227" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="228" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="229" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="230" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="231" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="232" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="233" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="234" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="235" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="236" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="237" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="238" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="239" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="240" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="241" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="242" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="243" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="244" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="245" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="246" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="247" s="137" spans="1:10"/>
+    <row customHeight="1" ht="15" r="114" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="115" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="116" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="117" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="118" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="119" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="120" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="121" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="122" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="123" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="124" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="125" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="126" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="127" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="128" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="129" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="130" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="131" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="132" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="133" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="134" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="135" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="136" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="137" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="138" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="139" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="140" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="141" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="142" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="143" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="144" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="145" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="146" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="147" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="148" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="149" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="150" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="151" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="152" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="153" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="154" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="155" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="156" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="157" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="158" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="159" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="160" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="161" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="162" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="163" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="164" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="165" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="166" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="167" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="168" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="169" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="170" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="171" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="172" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="173" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="174" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="175" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="176" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="177" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="178" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="179" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="180" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="181" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="182" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="183" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="184" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="185" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="186" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="187" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="188" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="189" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="190" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="191" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="192" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="193" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="194" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="195" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="196" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="197" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="198" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="199" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="200" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="201" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="202" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="203" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="204" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="205" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="206" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="207" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="208" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="209" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="210" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="211" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="212" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="213" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="214" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="215" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="216" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="217" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="218" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="219" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="220" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="221" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="222" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="223" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="224" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="225" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="226" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="227" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="228" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="229" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="230" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="231" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="232" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="233" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="234" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="235" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="236" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="237" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="238" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="239" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="240" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="241" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="242" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="243" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="244" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="245" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="246" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="247" s="138" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="0.7480314960629921" footer="0.3149606299212598" header="0.3149606299212598" left="0.7086614173228347" right="0.7086614173228347" top="1.062992125984252"/>
   <pageSetup fitToHeight="0" orientation="landscape" paperSize="9" scale="71"/>
@@ -10526,7 +10616,7 @@
     <col customWidth="1" max="16384" min="22" style="14" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.95" r="1" s="137" spans="1:10">
+    <row customHeight="1" ht="15.95" r="1" s="138" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>341</v>
       </c>
@@ -10552,7 +10642,7 @@
       <c r="I2" s="18" t="n"/>
       <c r="J2" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="3" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="3" s="138" spans="1:10">
       <c r="A3" s="19" t="s">
         <v>342</v>
       </c>
@@ -10584,7 +10674,7 @@
         <v>349</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="4" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="4" s="138" spans="1:10">
       <c r="A4" s="20" t="n"/>
       <c r="B4" s="20" t="n"/>
       <c r="C4" s="20" t="n"/>
@@ -10598,91 +10688,133 @@
       <c r="I4" s="21" t="n"/>
       <c r="J4" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="5" s="137" spans="1:10">
-      <c r="A5" s="80" t="n"/>
-      <c r="B5" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="5" s="138" spans="1:10">
+      <c r="A5" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C5" s="20" t="n"/>
       <c r="D5" s="20" t="n"/>
-      <c r="E5" s="20" t="n"/>
+      <c r="E5" s="20" t="s">
+        <v>362</v>
+      </c>
       <c r="F5" s="20" t="n"/>
       <c r="G5" s="20" t="n"/>
       <c r="H5" s="20" t="n"/>
       <c r="I5" s="21" t="n"/>
       <c r="J5" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="6" s="137" spans="1:10">
-      <c r="A6" s="78" t="n"/>
-      <c r="B6" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="6" s="138" spans="1:10">
+      <c r="A6" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C6" s="20" t="n"/>
       <c r="D6" s="20" t="n"/>
-      <c r="E6" s="20" t="n"/>
+      <c r="E6" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="F6" s="20" t="n"/>
       <c r="G6" s="20" t="n"/>
       <c r="H6" s="20" t="n"/>
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="7" s="137" spans="1:10">
-      <c r="A7" s="80" t="n"/>
-      <c r="B7" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="7" s="138" spans="1:10">
+      <c r="A7" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C7" s="20" t="n"/>
       <c r="D7" s="20" t="n"/>
-      <c r="E7" s="20" t="n"/>
+      <c r="E7" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="F7" s="20" t="n"/>
       <c r="G7" s="20" t="n"/>
       <c r="H7" s="20" t="n"/>
       <c r="I7" s="21" t="n"/>
       <c r="J7" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="8" s="137" spans="1:10">
-      <c r="A8" s="79" t="n"/>
-      <c r="B8" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="8" s="138" spans="1:10">
+      <c r="A8" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C8" s="22" t="n"/>
       <c r="D8" s="22" t="n"/>
-      <c r="E8" s="20" t="n"/>
+      <c r="E8" s="20" t="s">
+        <v>245</v>
+      </c>
       <c r="F8" s="22" t="n"/>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="22" t="n"/>
       <c r="I8" s="22" t="n"/>
       <c r="J8" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="9" s="137" spans="1:10">
-      <c r="A9" s="80" t="n"/>
-      <c r="B9" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="9" s="138" spans="1:10">
+      <c r="A9" s="80" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>203</v>
+      </c>
       <c r="C9" s="20" t="n"/>
       <c r="D9" s="20" t="n"/>
-      <c r="E9" s="20" t="n"/>
+      <c r="E9" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="F9" s="20" t="n"/>
       <c r="G9" s="20" t="n"/>
       <c r="H9" s="20" t="n"/>
       <c r="I9" s="21" t="n"/>
       <c r="J9" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="10" s="137" spans="1:10">
-      <c r="A10" s="92" t="n"/>
-      <c r="B10" s="93" t="n"/>
+    <row customHeight="1" ht="15" r="10" s="138" spans="1:10">
+      <c r="A10" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>256</v>
+      </c>
       <c r="C10" s="94" t="n"/>
       <c r="D10" s="94" t="n"/>
-      <c r="E10" s="94" t="n"/>
+      <c r="E10" s="94" t="s">
+        <v>258</v>
+      </c>
       <c r="F10" s="94" t="n"/>
       <c r="G10" s="20" t="n"/>
       <c r="H10" s="20" t="n"/>
       <c r="I10" s="21" t="n"/>
       <c r="J10" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="11" s="137" spans="1:10">
-      <c r="A11" s="80" t="n"/>
-      <c r="B11" s="54" t="n"/>
+    <row customHeight="1" ht="15" r="11" s="138" spans="1:10">
+      <c r="A11" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>261</v>
+      </c>
       <c r="C11" s="20" t="n"/>
       <c r="D11" s="20" t="n"/>
-      <c r="E11" s="20" t="n"/>
+      <c r="E11" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="F11" s="20" t="n"/>
       <c r="G11" s="20" t="n"/>
       <c r="H11" s="20" t="n"/>
       <c r="I11" s="21" t="n"/>
       <c r="J11" s="21" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="12" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="12" s="138" spans="1:10">
       <c r="A12" s="22" t="n"/>
       <c r="B12" s="22" t="n"/>
       <c r="C12" s="22" t="n"/>
@@ -10694,7 +10826,7 @@
       <c r="I12" s="22" t="n"/>
       <c r="J12" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="13" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="13" s="138" spans="1:10">
       <c r="A13" s="22" t="n"/>
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="22" t="n"/>
@@ -10706,7 +10838,7 @@
       <c r="I13" s="22" t="n"/>
       <c r="J13" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="14" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="14" s="138" spans="1:10">
       <c r="A14" s="22" t="n"/>
       <c r="B14" s="22" t="n"/>
       <c r="C14" s="22" t="n"/>
@@ -10718,7 +10850,7 @@
       <c r="I14" s="22" t="n"/>
       <c r="J14" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="15" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="15" s="138" spans="1:10">
       <c r="A15" s="22" t="n"/>
       <c r="B15" s="22" t="n"/>
       <c r="C15" s="22" t="n"/>
@@ -10730,7 +10862,7 @@
       <c r="I15" s="22" t="n"/>
       <c r="J15" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="16" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="16" s="138" spans="1:10">
       <c r="A16" s="22" t="n"/>
       <c r="B16" s="22" t="n"/>
       <c r="C16" s="22" t="n"/>
@@ -10742,7 +10874,7 @@
       <c r="I16" s="22" t="n"/>
       <c r="J16" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="17" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="17" s="138" spans="1:10">
       <c r="A17" s="22" t="n"/>
       <c r="B17" s="22" t="n"/>
       <c r="C17" s="22" t="n"/>
@@ -10754,7 +10886,7 @@
       <c r="I17" s="22" t="n"/>
       <c r="J17" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="18" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="18" s="138" spans="1:10">
       <c r="A18" s="22" t="n"/>
       <c r="B18" s="22" t="n"/>
       <c r="C18" s="22" t="n"/>
@@ -10766,7 +10898,7 @@
       <c r="I18" s="22" t="n"/>
       <c r="J18" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="19" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="19" s="138" spans="1:10">
       <c r="A19" s="22" t="n"/>
       <c r="B19" s="22" t="n"/>
       <c r="C19" s="22" t="n"/>
@@ -10778,7 +10910,7 @@
       <c r="I19" s="22" t="n"/>
       <c r="J19" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="20" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="20" s="138" spans="1:10">
       <c r="A20" s="22" t="n"/>
       <c r="B20" s="22" t="n"/>
       <c r="C20" s="22" t="n"/>
@@ -10790,7 +10922,7 @@
       <c r="I20" s="22" t="n"/>
       <c r="J20" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="21" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="21" s="138" spans="1:10">
       <c r="A21" s="22" t="n"/>
       <c r="B21" s="22" t="n"/>
       <c r="C21" s="22" t="n"/>
@@ -10802,7 +10934,7 @@
       <c r="I21" s="22" t="n"/>
       <c r="J21" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="22" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="22" s="138" spans="1:10">
       <c r="A22" s="22" t="n"/>
       <c r="B22" s="22" t="n"/>
       <c r="C22" s="22" t="n"/>
@@ -10814,7 +10946,7 @@
       <c r="I22" s="22" t="n"/>
       <c r="J22" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="23" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="23" s="138" spans="1:10">
       <c r="A23" s="22" t="n"/>
       <c r="B23" s="22" t="n"/>
       <c r="C23" s="22" t="n"/>
@@ -10826,7 +10958,7 @@
       <c r="I23" s="22" t="n"/>
       <c r="J23" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="24" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="24" s="138" spans="1:10">
       <c r="A24" s="22" t="n"/>
       <c r="B24" s="22" t="n"/>
       <c r="C24" s="22" t="n"/>
@@ -10838,7 +10970,7 @@
       <c r="I24" s="22" t="n"/>
       <c r="J24" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="25" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="25" s="138" spans="1:10">
       <c r="A25" s="22" t="n"/>
       <c r="B25" s="22" t="n"/>
       <c r="C25" s="22" t="n"/>
@@ -10850,7 +10982,7 @@
       <c r="I25" s="22" t="n"/>
       <c r="J25" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="26" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="26" s="138" spans="1:10">
       <c r="A26" s="22" t="n"/>
       <c r="B26" s="22" t="n"/>
       <c r="C26" s="22" t="n"/>
@@ -10862,7 +10994,7 @@
       <c r="I26" s="22" t="n"/>
       <c r="J26" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="27" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="27" s="138" spans="1:10">
       <c r="A27" s="22" t="n"/>
       <c r="B27" s="22" t="n"/>
       <c r="C27" s="22" t="n"/>
@@ -10874,7 +11006,7 @@
       <c r="I27" s="22" t="n"/>
       <c r="J27" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="28" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="28" s="138" spans="1:10">
       <c r="A28" s="22" t="n"/>
       <c r="B28" s="22" t="n"/>
       <c r="C28" s="22" t="n"/>
@@ -10886,7 +11018,7 @@
       <c r="I28" s="22" t="n"/>
       <c r="J28" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="29" s="137" spans="1:10">
+    <row customHeight="1" ht="15" r="29" s="138" spans="1:10">
       <c r="A29" s="22" t="n"/>
       <c r="B29" s="22" t="n"/>
       <c r="C29" s="22" t="n"/>
@@ -10898,134 +11030,134 @@
       <c r="I29" s="22" t="n"/>
       <c r="J29" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="30" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="31" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="32" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="33" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="34" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="35" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="36" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="37" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="38" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="39" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="40" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="41" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="42" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="43" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="44" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="45" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="46" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="47" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="48" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="49" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="50" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="51" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="52" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="53" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="54" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="55" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="56" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="57" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="58" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="59" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="60" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="61" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="62" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="63" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="64" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="65" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="66" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="67" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="68" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="69" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="70" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="71" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="72" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="73" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="74" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="75" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="76" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="77" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="78" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="79" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="80" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="81" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="82" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="83" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="84" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="85" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="86" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="87" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="88" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="89" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="90" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="91" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="92" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="93" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="94" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="95" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="96" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="97" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="98" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="99" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="100" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="101" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="102" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="103" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="104" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="105" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="106" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="107" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="108" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="109" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="110" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="111" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="112" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="113" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="114" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="115" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="116" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="117" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="118" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="119" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="120" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="121" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="122" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="123" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="124" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="125" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="126" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="127" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="128" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="129" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="130" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="131" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="132" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="133" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="134" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="135" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="136" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="137" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="138" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="139" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="140" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="141" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="142" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="143" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="144" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="145" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="146" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="147" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="148" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="149" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="150" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="151" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="152" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="153" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="154" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="155" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="156" s="137" spans="1:10"/>
-    <row customHeight="1" ht="15" r="157" s="137" spans="1:10"/>
+    <row customHeight="1" ht="15" r="30" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="31" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="32" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="33" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="34" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="35" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="36" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="37" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="38" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="39" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="40" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="41" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="42" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="43" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="44" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="45" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="46" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="47" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="48" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="49" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="50" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="51" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="52" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="53" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="54" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="55" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="56" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="57" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="58" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="59" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="60" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="61" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="62" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="63" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="64" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="65" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="66" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="67" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="68" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="69" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="70" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="71" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="72" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="73" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="74" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="75" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="76" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="77" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="78" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="79" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="80" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="81" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="82" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="83" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="84" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="85" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="86" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="87" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="88" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="89" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="90" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="91" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="92" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="93" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="94" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="95" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="96" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="97" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="98" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="99" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="100" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="101" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="102" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="103" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="104" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="105" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="106" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="107" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="108" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="109" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="110" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="111" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="112" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="113" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="114" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="115" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="116" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="117" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="118" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="119" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="120" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="121" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="122" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="123" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="124" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="125" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="126" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="127" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="128" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="129" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="130" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="131" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="132" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="133" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="134" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="135" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="136" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="137" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="138" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="139" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="140" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="141" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="142" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="143" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="144" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="145" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="146" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="147" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="148" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="149" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="150" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="151" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="152" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="153" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="154" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="155" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="156" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="157" s="138" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="0.7480314960629921" footer="0.3149606299212598" header="0.3149606299212598" left="0.7086614173228347" right="0.7086614173228347" top="1.062992125984252"/>
   <pageSetup fitToHeight="0" orientation="landscape" paperSize="9" scale="79"/>
@@ -11054,68 +11186,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="137" width="33.140625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="137" width="26.5703125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="137" width="23.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="137" width="27.28515625"/>
-    <col customWidth="1" max="18" min="18" style="137" width="10.7109375"/>
+    <col customWidth="1" max="2" min="2" style="138" width="33.140625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="138" width="26.5703125"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="138" width="23.85546875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="138" width="27.28515625"/>
+    <col customWidth="1" max="18" min="18" style="138" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18.75" r="2" s="137" spans="1:19">
-      <c r="A2" s="139" t="s">
-        <v>362</v>
+    <row customHeight="1" ht="18.75" r="2" s="138" spans="1:19">
+      <c r="A2" s="140" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="B4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="7" s="23" spans="1:19">
       <c r="B7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15.75" r="8" s="23" spans="1:19">
       <c r="B8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="9" s="24" spans="1:19">
       <c r="B9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="10" s="24" spans="1:19"/>
-    <row customFormat="1" customHeight="1" ht="18.75" r="11" s="141" spans="1:19">
-      <c r="A11" s="140" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="8.25" r="12" s="141" spans="1:19"/>
-    <row customFormat="1" customHeight="1" ht="15" r="13" s="141" spans="1:19">
+    <row customFormat="1" customHeight="1" ht="18.75" r="11" s="142" spans="1:19">
+      <c r="A11" s="141" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="8.25" r="12" s="142" spans="1:19"/>
+    <row customFormat="1" customHeight="1" ht="15" r="13" s="142" spans="1:19">
       <c r="B13" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C13" s="27" t="n"/>
       <c r="D13" s="25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E13" s="25" t="n"/>
       <c r="F13" s="26" t="n"/>
       <c r="G13" s="26" t="n"/>
       <c r="H13" s="28" t="n"/>
       <c r="I13" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K13" s="25" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="14" s="141" spans="1:19">
+    <row customFormat="1" customHeight="1" ht="15" r="14" s="142" spans="1:19">
       <c r="B14" s="28" t="n"/>
       <c r="C14" s="27" t="n"/>
       <c r="F14" s="28" t="n"/>
@@ -11123,27 +11255,27 @@
       <c r="H14" s="28" t="n"/>
       <c r="I14" s="28" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="15" r="15" s="141" spans="1:19">
+    <row customFormat="1" customHeight="1" ht="15" r="15" s="142" spans="1:19">
       <c r="B15" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" s="27" t="n"/>
       <c r="D15" s="25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E15" s="25" t="n"/>
       <c r="F15" s="25" t="n"/>
       <c r="G15" s="26" t="n"/>
       <c r="H15" s="28" t="n"/>
       <c r="I15" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J15" s="27" t="n"/>
       <c r="K15" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15" r="16" s="141" spans="1:19">
+        <v>376</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="16" s="142" spans="1:19">
       <c r="B16" s="28" t="n"/>
       <c r="C16" s="27" t="n"/>
       <c r="G16" s="28" t="n"/>
@@ -11153,7 +11285,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="B17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="7" t="n"/>
       <c r="E17" s="7" t="n"/>
@@ -11164,72 +11296,72 @@
       <c r="J17" s="7" t="n"/>
       <c r="K17" s="7" t="n"/>
     </row>
-    <row customHeight="1" ht="29.25" r="19" s="137" spans="1:19">
-      <c r="B19" s="142" t="s">
-        <v>377</v>
+    <row customHeight="1" ht="29.25" r="19" s="138" spans="1:19">
+      <c r="B19" s="143" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="B21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="22" s="137" spans="1:19" thickBot="1"/>
-    <row customHeight="1" ht="102.75" r="23" s="137" spans="1:19" thickBot="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="22" s="138" spans="1:19" thickBot="1"/>
+    <row customHeight="1" ht="102.75" r="23" s="138" spans="1:19" thickBot="1">
       <c r="A23" s="29" t="n"/>
-      <c r="B23" s="143" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="144" t="s">
+      <c r="B23" s="144" t="s">
         <v>380</v>
       </c>
+      <c r="C23" s="145" t="s">
+        <v>381</v>
+      </c>
       <c r="J23" s="30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N23" s="109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O23" s="109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P23" s="109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="110" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="13.5" r="24" s="137" spans="1:19" thickBot="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.5" r="24" s="138" spans="1:19" thickBot="1">
       <c r="A24" s="31" t="n"/>
-      <c r="C24" s="145" t="s">
-        <v>389</v>
-      </c>
-      <c r="D24" s="136" t="s">
+      <c r="C24" s="146" t="s">
         <v>390</v>
       </c>
-      <c r="E24" s="136" t="s">
+      <c r="D24" s="137" t="s">
         <v>391</v>
       </c>
-      <c r="F24" s="136" t="s">
+      <c r="E24" s="137" t="s">
         <v>392</v>
       </c>
-      <c r="G24" s="136" t="s">
+      <c r="F24" s="137" t="s">
         <v>393</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="G24" s="137" t="s">
+        <v>394</v>
+      </c>
+      <c r="H24" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="138" t="s">
-        <v>394</v>
+      <c r="I24" s="139" t="s">
+        <v>395</v>
       </c>
       <c r="J24" s="32" t="n">
         <v>6</v>
@@ -11246,55 +11378,55 @@
       <c r="P24" s="34" t="n"/>
       <c r="Q24" s="35" t="n"/>
     </row>
-    <row customHeight="1" ht="13.5" r="25" s="137" spans="1:19" thickBot="1">
+    <row customHeight="1" ht="13.5" r="25" s="138" spans="1:19" thickBot="1">
       <c r="A25" s="36" t="n"/>
       <c r="J25" s="37" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P25" s="37" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R25" s="39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row customHeight="1" ht="18.75" r="26" s="137" spans="1:19" thickBot="1">
+    <row customHeight="1" ht="18.75" r="26" s="138" spans="1:19" thickBot="1">
       <c r="A26" s="40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B26" s="41" t="n"/>
       <c r="C26" s="42" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H26" s="43" t="n">
         <v>1</v>
@@ -11304,7 +11436,7 @@
         <v>314</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L26" s="46" t="n"/>
       <c r="M26" s="45" t="n"/>
@@ -11316,10 +11448,10 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B27" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C27" s="129" t="n"/>
       <c r="D27" s="129" t="n"/>
@@ -11327,14 +11459,14 @@
       <c r="F27" s="129" t="n"/>
       <c r="G27" s="129" t="n"/>
       <c r="H27" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I27" s="129" t="n"/>
       <c r="J27" s="131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K27" s="132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L27" s="133" t="n"/>
       <c r="M27" s="134" t="n"/>
@@ -11347,10 +11479,10 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="50" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B28" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C28" s="130" t="n"/>
       <c r="D28" s="130" t="n"/>
@@ -11358,14 +11490,14 @@
       <c r="F28" s="130" t="n"/>
       <c r="G28" s="130" t="n"/>
       <c r="H28" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I28" s="130" t="n"/>
       <c r="J28" s="131" t="s">
         <v>144</v>
       </c>
       <c r="K28" s="132" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L28" s="133" t="n"/>
       <c r="M28" s="134" t="n"/>
@@ -11378,10 +11510,10 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B29" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C29" s="130" t="n"/>
       <c r="D29" s="130" t="n"/>
@@ -11389,14 +11521,14 @@
       <c r="F29" s="130" t="n"/>
       <c r="G29" s="130" t="n"/>
       <c r="H29" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I29" s="130" t="n"/>
       <c r="J29" s="132" t="s">
         <v>178</v>
       </c>
       <c r="K29" s="132" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L29" s="133" t="s">
         <v>90</v>
@@ -11411,10 +11543,10 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="50" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B30" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C30" s="130" t="n"/>
       <c r="D30" s="130" t="n"/>
@@ -11422,14 +11554,14 @@
       <c r="F30" s="130" t="n"/>
       <c r="G30" s="130" t="n"/>
       <c r="H30" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I30" s="130" t="n"/>
       <c r="J30" s="132" t="s">
         <v>182</v>
       </c>
       <c r="K30" s="132" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L30" s="133" t="s">
         <v>90</v>
@@ -11444,10 +11576,10 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="50" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B31" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C31" s="130" t="n"/>
       <c r="D31" s="130" t="n"/>
@@ -11455,14 +11587,14 @@
       <c r="F31" s="130" t="n"/>
       <c r="G31" s="130" t="n"/>
       <c r="H31" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I31" s="130" t="n"/>
       <c r="J31" s="132" t="s">
         <v>193</v>
       </c>
       <c r="K31" s="132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L31" s="133" t="s">
         <v>90</v>
@@ -11477,10 +11609,10 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="50" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B32" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C32" s="130" t="n"/>
       <c r="D32" s="130" t="n"/>
@@ -11488,14 +11620,14 @@
       <c r="F32" s="130" t="n"/>
       <c r="G32" s="130" t="n"/>
       <c r="H32" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I32" s="130" t="n"/>
       <c r="J32" s="132" t="s">
         <v>195</v>
       </c>
       <c r="K32" s="132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L32" s="133" t="s">
         <v>90</v>
@@ -11510,10 +11642,10 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="50" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B33" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C33" s="130" t="n"/>
       <c r="D33" s="130" t="n"/>
@@ -11521,14 +11653,14 @@
       <c r="F33" s="130" t="n"/>
       <c r="G33" s="130" t="n"/>
       <c r="H33" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I33" s="130" t="n"/>
       <c r="J33" s="132" t="s">
         <v>198</v>
       </c>
       <c r="K33" s="132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L33" s="133" t="s">
         <v>90</v>
@@ -11543,10 +11675,10 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="50" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B34" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C34" s="130" t="n"/>
       <c r="D34" s="130" t="n"/>
@@ -11554,14 +11686,14 @@
       <c r="F34" s="130" t="n"/>
       <c r="G34" s="130" t="n"/>
       <c r="H34" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I34" s="130" t="n"/>
       <c r="J34" s="132" t="s">
         <v>202</v>
       </c>
       <c r="K34" s="132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L34" s="133" t="s">
         <v>90</v>
@@ -11576,10 +11708,10 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B35" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C35" s="130" t="n"/>
       <c r="D35" s="130" t="n"/>
@@ -11587,14 +11719,14 @@
       <c r="F35" s="130" t="n"/>
       <c r="G35" s="130" t="n"/>
       <c r="H35" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I35" s="130" t="n"/>
       <c r="J35" s="132" t="s">
         <v>208</v>
       </c>
       <c r="K35" s="132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L35" s="133" t="s">
         <v>90</v>
@@ -11609,10 +11741,10 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B36" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C36" s="130" t="n"/>
       <c r="D36" s="130" t="n"/>
@@ -11620,14 +11752,14 @@
       <c r="F36" s="130" t="n"/>
       <c r="G36" s="130" t="n"/>
       <c r="H36" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I36" s="130" t="n"/>
       <c r="J36" s="132" t="s">
         <v>214</v>
       </c>
       <c r="K36" s="132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L36" s="133" t="s">
         <v>90</v>
@@ -11642,10 +11774,10 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B37" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C37" s="130" t="n"/>
       <c r="D37" s="130" t="n"/>
@@ -11653,14 +11785,14 @@
       <c r="F37" s="130" t="n"/>
       <c r="G37" s="130" t="n"/>
       <c r="H37" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I37" s="130" t="n"/>
       <c r="J37" s="132" t="s">
         <v>214</v>
       </c>
       <c r="K37" s="132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L37" s="133" t="n"/>
       <c r="M37" s="134" t="n"/>
@@ -11673,10 +11805,10 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="50" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B38" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C38" s="130" t="n"/>
       <c r="D38" s="130" t="n"/>
@@ -11684,14 +11816,14 @@
       <c r="F38" s="130" t="n"/>
       <c r="G38" s="130" t="n"/>
       <c r="H38" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I38" s="130" t="n"/>
       <c r="J38" s="132" t="s">
         <v>215</v>
       </c>
       <c r="K38" s="132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L38" s="133" t="s">
         <v>90</v>
@@ -11706,10 +11838,10 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="50" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B39" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C39" s="130" t="n"/>
       <c r="D39" s="130" t="n"/>
@@ -11717,14 +11849,14 @@
       <c r="F39" s="130" t="n"/>
       <c r="G39" s="130" t="n"/>
       <c r="H39" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I39" s="130" t="n"/>
       <c r="J39" s="132" t="s">
         <v>215</v>
       </c>
       <c r="K39" s="132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L39" s="133" t="n"/>
       <c r="M39" s="134" t="n"/>
@@ -11737,10 +11869,10 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="50" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B40" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C40" s="130" t="n"/>
       <c r="D40" s="130" t="n"/>
@@ -11748,14 +11880,14 @@
       <c r="F40" s="130" t="n"/>
       <c r="G40" s="130" t="n"/>
       <c r="H40" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I40" s="130" t="n"/>
       <c r="J40" s="132" t="s">
         <v>217</v>
       </c>
       <c r="K40" s="132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L40" s="133" t="s">
         <v>90</v>
@@ -11770,10 +11902,10 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="50" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B41" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C41" s="130" t="n"/>
       <c r="D41" s="130" t="n"/>
@@ -11781,14 +11913,14 @@
       <c r="F41" s="130" t="n"/>
       <c r="G41" s="130" t="n"/>
       <c r="H41" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I41" s="130" t="n"/>
       <c r="J41" s="132" t="s">
         <v>217</v>
       </c>
       <c r="K41" s="132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L41" s="133" t="n"/>
       <c r="M41" s="134" t="n"/>
@@ -11801,10 +11933,10 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B42" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C42" s="130" t="n"/>
       <c r="D42" s="130" t="n"/>
@@ -11812,14 +11944,14 @@
       <c r="F42" s="130" t="n"/>
       <c r="G42" s="130" t="n"/>
       <c r="H42" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I42" s="130" t="n"/>
       <c r="J42" s="132" t="s">
         <v>221</v>
       </c>
       <c r="K42" s="132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L42" s="133" t="s">
         <v>90</v>
@@ -11834,10 +11966,10 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B43" s="128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C43" s="130" t="n"/>
       <c r="D43" s="130" t="n"/>
@@ -11845,14 +11977,14 @@
       <c r="F43" s="130" t="n"/>
       <c r="G43" s="130" t="n"/>
       <c r="H43" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I43" s="130" t="n"/>
       <c r="J43" s="132" t="s">
         <v>221</v>
       </c>
       <c r="K43" s="132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L43" s="133" t="n"/>
       <c r="M43" s="134" t="n"/>
@@ -11865,10 +11997,10 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B44" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C44" s="130" t="n"/>
       <c r="D44" s="130" t="n"/>
@@ -11876,14 +12008,14 @@
       <c r="F44" s="130" t="n"/>
       <c r="G44" s="130" t="n"/>
       <c r="H44" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I44" s="130" t="n"/>
       <c r="J44" s="132" t="s">
         <v>227</v>
       </c>
       <c r="K44" s="132" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" s="133" t="s">
         <v>90</v>
@@ -11898,10 +12030,10 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="50" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B45" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C45" s="130" t="n"/>
       <c r="D45" s="130" t="n"/>
@@ -11909,14 +12041,14 @@
       <c r="F45" s="130" t="n"/>
       <c r="G45" s="130" t="n"/>
       <c r="H45" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I45" s="130" t="n"/>
       <c r="J45" s="132" t="s">
         <v>228</v>
       </c>
       <c r="K45" s="132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L45" s="133" t="s">
         <v>90</v>
@@ -11931,10 +12063,10 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="50" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B46" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C46" s="130" t="n"/>
       <c r="D46" s="130" t="n"/>
@@ -11942,14 +12074,14 @@
       <c r="F46" s="130" t="n"/>
       <c r="G46" s="130" t="n"/>
       <c r="H46" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I46" s="130" t="n"/>
       <c r="J46" s="132" t="s">
         <v>229</v>
       </c>
       <c r="K46" s="132" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L46" s="133" t="s">
         <v>90</v>
@@ -11964,10 +12096,10 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="50" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B47" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C47" s="130" t="n"/>
       <c r="D47" s="130" t="n"/>
@@ -11975,14 +12107,14 @@
       <c r="F47" s="130" t="n"/>
       <c r="G47" s="130" t="n"/>
       <c r="H47" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I47" s="130" t="n"/>
       <c r="J47" s="132" t="s">
         <v>230</v>
       </c>
       <c r="K47" s="132" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L47" s="133" t="s">
         <v>90</v>
@@ -11997,10 +12129,10 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="50" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B48" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C48" s="130" t="n"/>
       <c r="D48" s="130" t="n"/>
@@ -12008,14 +12140,14 @@
       <c r="F48" s="130" t="n"/>
       <c r="G48" s="130" t="n"/>
       <c r="H48" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I48" s="130" t="n"/>
       <c r="J48" s="133" t="s">
         <v>234</v>
       </c>
       <c r="K48" s="133" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L48" s="133" t="s">
         <v>90</v>
@@ -12030,10 +12162,10 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B49" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C49" s="130" t="n"/>
       <c r="D49" s="130" t="n"/>
@@ -12041,14 +12173,14 @@
       <c r="F49" s="130" t="n"/>
       <c r="G49" s="130" t="n"/>
       <c r="H49" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I49" s="130" t="n"/>
       <c r="J49" s="133" t="s">
         <v>238</v>
       </c>
       <c r="K49" s="133" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L49" s="133" t="s">
         <v>90</v>
@@ -12063,10 +12195,10 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="50" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B50" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C50" s="130" t="n"/>
       <c r="D50" s="130" t="n"/>
@@ -12074,14 +12206,14 @@
       <c r="F50" s="130" t="n"/>
       <c r="G50" s="130" t="n"/>
       <c r="H50" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I50" s="130" t="n"/>
       <c r="J50" s="133" t="s">
         <v>240</v>
       </c>
       <c r="K50" s="133" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L50" s="133" t="s">
         <v>90</v>
@@ -12096,10 +12228,10 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B51" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C51" s="130" t="n"/>
       <c r="D51" s="130" t="n"/>
@@ -12107,14 +12239,14 @@
       <c r="F51" s="130" t="n"/>
       <c r="G51" s="130" t="n"/>
       <c r="H51" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I51" s="130" t="n"/>
       <c r="J51" s="133" t="s">
         <v>242</v>
       </c>
       <c r="K51" s="133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L51" s="133" t="s">
         <v>90</v>
@@ -12129,10 +12261,10 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B52" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C52" s="130" t="n"/>
       <c r="D52" s="130" t="n"/>
@@ -12140,14 +12272,14 @@
       <c r="F52" s="130" t="n"/>
       <c r="G52" s="130" t="n"/>
       <c r="H52" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I52" s="130" t="n"/>
       <c r="J52" s="133" t="s">
         <v>243</v>
       </c>
       <c r="K52" s="133" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L52" s="133" t="s">
         <v>90</v>
@@ -12162,10 +12294,10 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="50" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B53" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C53" s="130" t="n"/>
       <c r="D53" s="130" t="n"/>
@@ -12173,14 +12305,14 @@
       <c r="F53" s="130" t="n"/>
       <c r="G53" s="130" t="n"/>
       <c r="H53" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I53" s="130" t="n"/>
       <c r="J53" s="133" t="s">
         <v>251</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L53" s="133" t="s">
         <v>90</v>
@@ -12195,10 +12327,10 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B54" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C54" s="130" t="n"/>
       <c r="D54" s="130" t="n"/>
@@ -12206,14 +12338,14 @@
       <c r="F54" s="130" t="n"/>
       <c r="G54" s="130" t="n"/>
       <c r="H54" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I54" s="130" t="n"/>
       <c r="J54" s="133" t="s">
         <v>255</v>
       </c>
       <c r="K54" s="133" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L54" s="133" t="s">
         <v>90</v>
@@ -12228,10 +12360,10 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="50" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B55" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C55" s="130" t="n"/>
       <c r="D55" s="130" t="n"/>
@@ -12239,14 +12371,14 @@
       <c r="F55" s="130" t="n"/>
       <c r="G55" s="130" t="n"/>
       <c r="H55" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I55" s="130" t="n"/>
       <c r="J55" s="133" t="s">
         <v>260</v>
       </c>
       <c r="K55" s="133" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L55" s="133" t="s">
         <v>90</v>
@@ -12261,10 +12393,10 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B56" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="130" t="n"/>
       <c r="D56" s="130" t="n"/>
@@ -12272,14 +12404,14 @@
       <c r="F56" s="130" t="n"/>
       <c r="G56" s="130" t="n"/>
       <c r="H56" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I56" s="130" t="n"/>
       <c r="J56" s="133" t="s">
         <v>262</v>
       </c>
       <c r="K56" s="133" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L56" s="133" t="s">
         <v>90</v>
@@ -12294,10 +12426,10 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="50" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B57" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C57" s="130" t="n"/>
       <c r="D57" s="130" t="n"/>
@@ -12305,14 +12437,14 @@
       <c r="F57" s="130" t="n"/>
       <c r="G57" s="130" t="n"/>
       <c r="H57" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I57" s="130" t="n"/>
       <c r="J57" s="133" t="s">
         <v>266</v>
       </c>
       <c r="K57" s="133" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L57" s="133" t="s">
         <v>90</v>
@@ -12327,10 +12459,10 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="50" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B58" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C58" s="130" t="n"/>
       <c r="D58" s="130" t="n"/>
@@ -12338,14 +12470,14 @@
       <c r="F58" s="130" t="n"/>
       <c r="G58" s="130" t="n"/>
       <c r="H58" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I58" s="130" t="n"/>
       <c r="J58" s="133" t="s">
         <v>271</v>
       </c>
       <c r="K58" s="133" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L58" s="133" t="s">
         <v>90</v>
@@ -12360,10 +12492,10 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="50" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B59" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C59" s="130" t="n"/>
       <c r="D59" s="130" t="n"/>
@@ -12371,14 +12503,14 @@
       <c r="F59" s="130" t="n"/>
       <c r="G59" s="130" t="n"/>
       <c r="H59" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I59" s="130" t="n"/>
       <c r="J59" s="133" t="s">
         <v>275</v>
       </c>
       <c r="K59" s="133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L59" s="133" t="s">
         <v>90</v>
@@ -12393,10 +12525,10 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="50" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C60" s="130" t="n"/>
       <c r="D60" s="130" t="n"/>
@@ -12404,14 +12536,14 @@
       <c r="F60" s="130" t="n"/>
       <c r="G60" s="130" t="n"/>
       <c r="H60" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I60" s="130" t="n"/>
       <c r="J60" s="133" t="s">
         <v>277</v>
       </c>
       <c r="K60" s="133" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L60" s="133" t="s">
         <v>90</v>
@@ -12426,10 +12558,10 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="50" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B61" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C61" s="130" t="n"/>
       <c r="D61" s="130" t="n"/>
@@ -12437,14 +12569,14 @@
       <c r="F61" s="130" t="n"/>
       <c r="G61" s="130" t="n"/>
       <c r="H61" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I61" s="130" t="n"/>
       <c r="J61" s="133" t="s">
         <v>280</v>
       </c>
       <c r="K61" s="133" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L61" s="133" t="s">
         <v>90</v>
@@ -12459,10 +12591,10 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="50" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B62" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C62" s="130" t="n"/>
       <c r="D62" s="130" t="n"/>
@@ -12470,14 +12602,14 @@
       <c r="F62" s="130" t="n"/>
       <c r="G62" s="130" t="n"/>
       <c r="H62" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I62" s="130" t="n"/>
       <c r="J62" s="133" t="s">
         <v>281</v>
       </c>
       <c r="K62" s="133" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L62" s="133" t="s">
         <v>90</v>
@@ -12492,10 +12624,10 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="50" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B63" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C63" s="130" t="n"/>
       <c r="D63" s="130" t="n"/>
@@ -12503,14 +12635,14 @@
       <c r="F63" s="130" t="n"/>
       <c r="G63" s="130" t="n"/>
       <c r="H63" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I63" s="130" t="n"/>
       <c r="J63" s="133" t="s">
         <v>284</v>
       </c>
       <c r="K63" s="133" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L63" s="133" t="s">
         <v>90</v>
@@ -12525,10 +12657,10 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="50" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B64" s="135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C64" s="130" t="n"/>
       <c r="D64" s="130" t="n"/>
@@ -12536,14 +12668,14 @@
       <c r="F64" s="130" t="n"/>
       <c r="G64" s="130" t="n"/>
       <c r="H64" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I64" s="130" t="n"/>
       <c r="J64" s="133" t="s">
         <v>284</v>
       </c>
       <c r="K64" s="133" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L64" s="133" t="n"/>
       <c r="M64" s="134" t="n"/>
@@ -12556,10 +12688,10 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B65" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C65" s="130" t="n"/>
       <c r="D65" s="130" t="n"/>
@@ -12567,14 +12699,14 @@
       <c r="F65" s="130" t="n"/>
       <c r="G65" s="130" t="n"/>
       <c r="H65" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I65" s="130" t="n"/>
       <c r="J65" s="133" t="s">
         <v>287</v>
       </c>
       <c r="K65" s="133" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L65" s="133" t="s">
         <v>90</v>
@@ -12589,10 +12721,10 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="50" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B66" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C66" s="130" t="n"/>
       <c r="D66" s="130" t="n"/>
@@ -12600,14 +12732,14 @@
       <c r="F66" s="130" t="n"/>
       <c r="G66" s="130" t="n"/>
       <c r="H66" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I66" s="130" t="n"/>
       <c r="J66" s="133" t="s">
         <v>289</v>
       </c>
       <c r="K66" s="133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L66" s="133" t="s">
         <v>90</v>
@@ -12622,10 +12754,10 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="50" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B67" s="135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C67" s="130" t="n"/>
       <c r="D67" s="130" t="n"/>
@@ -12633,14 +12765,14 @@
       <c r="F67" s="130" t="n"/>
       <c r="G67" s="130" t="n"/>
       <c r="H67" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I67" s="130" t="n"/>
       <c r="J67" s="133" t="s">
         <v>289</v>
       </c>
       <c r="K67" s="133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L67" s="133" t="n"/>
       <c r="M67" s="134" t="n"/>
@@ -12653,10 +12785,10 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="50" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B68" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C68" s="130" t="n"/>
       <c r="D68" s="130" t="n"/>
@@ -12664,14 +12796,14 @@
       <c r="F68" s="130" t="n"/>
       <c r="G68" s="130" t="n"/>
       <c r="H68" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I68" s="130" t="n"/>
       <c r="J68" s="133" t="s">
         <v>291</v>
       </c>
       <c r="K68" s="133" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L68" s="133" t="s">
         <v>90</v>
@@ -12686,10 +12818,10 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="50" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B69" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C69" s="130" t="n"/>
       <c r="D69" s="130" t="n"/>
@@ -12697,14 +12829,14 @@
       <c r="F69" s="130" t="n"/>
       <c r="G69" s="130" t="n"/>
       <c r="H69" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I69" s="130" t="n"/>
       <c r="J69" s="133" t="s">
         <v>294</v>
       </c>
       <c r="K69" s="133" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L69" s="133" t="s">
         <v>90</v>
@@ -12719,10 +12851,10 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="50" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B70" s="135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C70" s="130" t="n"/>
       <c r="D70" s="130" t="n"/>
@@ -12730,14 +12862,14 @@
       <c r="F70" s="130" t="n"/>
       <c r="G70" s="130" t="n"/>
       <c r="H70" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I70" s="130" t="n"/>
       <c r="J70" s="133" t="s">
         <v>294</v>
       </c>
       <c r="K70" s="133" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L70" s="133" t="n"/>
       <c r="M70" s="134" t="n"/>
@@ -12750,10 +12882,10 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="50" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B71" s="135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C71" s="130" t="n"/>
       <c r="D71" s="130" t="n"/>
@@ -12761,14 +12893,14 @@
       <c r="F71" s="130" t="n"/>
       <c r="G71" s="130" t="n"/>
       <c r="H71" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I71" s="130" t="n"/>
       <c r="J71" s="133" t="s">
         <v>295</v>
       </c>
       <c r="K71" s="133" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L71" s="133" t="s">
         <v>90</v>
@@ -12783,10 +12915,10 @@
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B72" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="130" t="n"/>
       <c r="D72" s="130" t="n"/>
@@ -12794,14 +12926,14 @@
       <c r="F72" s="130" t="n"/>
       <c r="G72" s="130" t="n"/>
       <c r="H72" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I72" s="130" t="n"/>
       <c r="J72" s="134" t="s">
         <v>299</v>
       </c>
       <c r="K72" s="134" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L72" s="134" t="s">
         <v>90</v>
@@ -12816,10 +12948,10 @@
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="50" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B73" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C73" s="130" t="n"/>
       <c r="D73" s="130" t="n"/>
@@ -12827,14 +12959,14 @@
       <c r="F73" s="130" t="n"/>
       <c r="G73" s="130" t="n"/>
       <c r="H73" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I73" s="130" t="n"/>
       <c r="J73" s="134" t="s">
         <v>300</v>
       </c>
       <c r="K73" s="134" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L73" s="134" t="s">
         <v>90</v>
@@ -12849,10 +12981,10 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="50" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B74" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C74" s="130" t="n"/>
       <c r="D74" s="130" t="n"/>
@@ -12860,14 +12992,14 @@
       <c r="F74" s="130" t="n"/>
       <c r="G74" s="130" t="n"/>
       <c r="H74" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I74" s="130" t="n"/>
       <c r="J74" s="134" t="s">
         <v>304</v>
       </c>
       <c r="K74" s="134" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L74" s="134" t="s">
         <v>90</v>
@@ -12882,10 +13014,10 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="50" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B75" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C75" s="130" t="n"/>
       <c r="D75" s="130" t="n"/>
@@ -12893,14 +13025,14 @@
       <c r="F75" s="130" t="n"/>
       <c r="G75" s="130" t="n"/>
       <c r="H75" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I75" s="130" t="n"/>
       <c r="J75" s="134" t="s">
         <v>309</v>
       </c>
       <c r="K75" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L75" s="134" t="s">
         <v>90</v>
@@ -12915,10 +13047,10 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B76" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C76" s="130" t="n"/>
       <c r="D76" s="130" t="n"/>
@@ -12926,14 +13058,14 @@
       <c r="F76" s="130" t="n"/>
       <c r="G76" s="130" t="n"/>
       <c r="H76" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I76" s="130" t="n"/>
       <c r="J76" s="134" t="s">
         <v>309</v>
       </c>
       <c r="K76" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L76" s="134" t="s">
         <v>90</v>
@@ -12948,10 +13080,10 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B77" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C77" s="130" t="n"/>
       <c r="D77" s="130" t="n"/>
@@ -12959,14 +13091,14 @@
       <c r="F77" s="130" t="n"/>
       <c r="G77" s="130" t="n"/>
       <c r="H77" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I77" s="130" t="n"/>
       <c r="J77" s="134" t="s">
         <v>313</v>
       </c>
       <c r="K77" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L77" s="134" t="s">
         <v>90</v>
@@ -12981,10 +13113,10 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B78" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C78" s="130" t="n"/>
       <c r="D78" s="130" t="n"/>
@@ -12992,14 +13124,14 @@
       <c r="F78" s="130" t="n"/>
       <c r="G78" s="130" t="n"/>
       <c r="H78" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I78" s="130" t="n"/>
       <c r="J78" s="134" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K78" s="134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L78" s="134" t="s">
         <v>90</v>
@@ -13014,10 +13146,10 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B79" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C79" s="130" t="n"/>
       <c r="D79" s="130" t="n"/>
@@ -13025,14 +13157,14 @@
       <c r="F79" s="130" t="n"/>
       <c r="G79" s="130" t="n"/>
       <c r="H79" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I79" s="130" t="n"/>
       <c r="J79" s="134" t="s">
         <v>317</v>
       </c>
       <c r="K79" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L79" s="134" t="s">
         <v>90</v>
@@ -13047,10 +13179,10 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B80" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C80" s="130" t="n"/>
       <c r="D80" s="130" t="n"/>
@@ -13058,14 +13190,14 @@
       <c r="F80" s="130" t="n"/>
       <c r="G80" s="130" t="n"/>
       <c r="H80" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I80" s="130" t="n"/>
       <c r="J80" s="134" t="s">
         <v>318</v>
       </c>
       <c r="K80" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L80" s="134" t="s">
         <v>90</v>
@@ -13080,10 +13212,10 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B81" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C81" s="130" t="n"/>
       <c r="D81" s="130" t="n"/>
@@ -13091,14 +13223,14 @@
       <c r="F81" s="130" t="n"/>
       <c r="G81" s="130" t="n"/>
       <c r="H81" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I81" s="130" t="n"/>
       <c r="J81" s="134" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K81" s="134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L81" s="134" t="s">
         <v>90</v>
@@ -13113,10 +13245,10 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B82" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C82" s="130" t="n"/>
       <c r="D82" s="130" t="n"/>
@@ -13124,14 +13256,14 @@
       <c r="F82" s="130" t="n"/>
       <c r="G82" s="130" t="n"/>
       <c r="H82" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I82" s="130" t="n"/>
       <c r="J82" s="134" t="s">
         <v>319</v>
       </c>
       <c r="K82" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L82" s="134" t="s">
         <v>90</v>
@@ -13146,10 +13278,10 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B83" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C83" s="130" t="n"/>
       <c r="D83" s="130" t="n"/>
@@ -13157,14 +13289,14 @@
       <c r="F83" s="130" t="n"/>
       <c r="G83" s="130" t="n"/>
       <c r="H83" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I83" s="130" t="n"/>
       <c r="J83" s="134" t="s">
         <v>320</v>
       </c>
       <c r="K83" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L83" s="134" t="s">
         <v>90</v>
@@ -13179,10 +13311,10 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="50" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B84" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C84" s="130" t="n"/>
       <c r="D84" s="130" t="n"/>
@@ -13190,14 +13322,14 @@
       <c r="F84" s="130" t="n"/>
       <c r="G84" s="130" t="n"/>
       <c r="H84" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I84" s="130" t="n"/>
       <c r="J84" s="134" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K84" s="134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L84" s="134" t="s">
         <v>90</v>
@@ -13212,10 +13344,10 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="50" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B85" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C85" s="130" t="n"/>
       <c r="D85" s="130" t="n"/>
@@ -13223,14 +13355,14 @@
       <c r="F85" s="130" t="n"/>
       <c r="G85" s="130" t="n"/>
       <c r="H85" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I85" s="130" t="n"/>
       <c r="J85" s="134" t="s">
         <v>321</v>
       </c>
       <c r="K85" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L85" s="134" t="s">
         <v>90</v>
@@ -13245,10 +13377,10 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="50" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B86" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C86" s="130" t="n"/>
       <c r="D86" s="130" t="n"/>
@@ -13256,14 +13388,14 @@
       <c r="F86" s="130" t="n"/>
       <c r="G86" s="130" t="n"/>
       <c r="H86" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I86" s="130" t="n"/>
       <c r="J86" s="134" t="s">
         <v>322</v>
       </c>
       <c r="K86" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L86" s="134" t="s">
         <v>90</v>
@@ -13278,10 +13410,10 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="50" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B87" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C87" s="130" t="n"/>
       <c r="D87" s="130" t="n"/>
@@ -13289,14 +13421,14 @@
       <c r="F87" s="130" t="n"/>
       <c r="G87" s="130" t="n"/>
       <c r="H87" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I87" s="130" t="n"/>
       <c r="J87" s="134" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K87" s="134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L87" s="134" t="s">
         <v>90</v>
@@ -13311,10 +13443,10 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="50" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B88" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C88" s="130" t="n"/>
       <c r="D88" s="130" t="n"/>
@@ -13322,14 +13454,14 @@
       <c r="F88" s="130" t="n"/>
       <c r="G88" s="130" t="n"/>
       <c r="H88" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I88" s="130" t="n"/>
       <c r="J88" s="134" t="s">
         <v>323</v>
       </c>
       <c r="K88" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L88" s="134" t="s">
         <v>90</v>
@@ -13344,10 +13476,10 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="50" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B89" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C89" s="130" t="n"/>
       <c r="D89" s="130" t="n"/>
@@ -13355,14 +13487,14 @@
       <c r="F89" s="130" t="n"/>
       <c r="G89" s="130" t="n"/>
       <c r="H89" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I89" s="130" t="n"/>
       <c r="J89" s="134" t="s">
         <v>324</v>
       </c>
       <c r="K89" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L89" s="134" t="s">
         <v>90</v>
@@ -13377,10 +13509,10 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="50" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B90" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C90" s="130" t="n"/>
       <c r="D90" s="130" t="n"/>
@@ -13388,14 +13520,14 @@
       <c r="F90" s="130" t="n"/>
       <c r="G90" s="130" t="n"/>
       <c r="H90" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I90" s="130" t="n"/>
       <c r="J90" s="134" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K90" s="134" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L90" s="134" t="s">
         <v>90</v>
@@ -13410,10 +13542,10 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="50" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B91" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C91" s="130" t="n"/>
       <c r="D91" s="130" t="n"/>
@@ -13421,14 +13553,14 @@
       <c r="F91" s="130" t="n"/>
       <c r="G91" s="130" t="n"/>
       <c r="H91" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I91" s="130" t="n"/>
       <c r="J91" s="134" t="s">
         <v>325</v>
       </c>
       <c r="K91" s="134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L91" s="134" t="s">
         <v>90</v>
@@ -13443,10 +13575,10 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="50" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B92" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C92" s="130" t="n"/>
       <c r="D92" s="130" t="n"/>
@@ -13454,14 +13586,14 @@
       <c r="F92" s="130" t="n"/>
       <c r="G92" s="130" t="n"/>
       <c r="H92" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I92" s="130" t="n"/>
       <c r="J92" s="134" t="s">
         <v>326</v>
       </c>
       <c r="K92" s="134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L92" s="134" t="s">
         <v>90</v>
@@ -13476,10 +13608,10 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="50" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B93" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C93" s="130" t="n"/>
       <c r="D93" s="130" t="n"/>
@@ -13487,14 +13619,14 @@
       <c r="F93" s="130" t="n"/>
       <c r="G93" s="130" t="n"/>
       <c r="H93" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I93" s="130" t="n"/>
       <c r="J93" s="50" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K93" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L93" s="134" t="s">
         <v>90</v>
@@ -13509,10 +13641,10 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="50" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B94" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C94" s="130" t="n"/>
       <c r="D94" s="130" t="n"/>
@@ -13520,14 +13652,14 @@
       <c r="F94" s="130" t="n"/>
       <c r="G94" s="130" t="n"/>
       <c r="H94" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I94" s="130" t="n"/>
       <c r="J94" s="50" t="s">
         <v>327</v>
       </c>
       <c r="K94" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L94" s="134" t="s">
         <v>90</v>
@@ -13542,10 +13674,10 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="50" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B95" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C95" s="130" t="n"/>
       <c r="D95" s="130" t="n"/>
@@ -13553,14 +13685,14 @@
       <c r="F95" s="130" t="n"/>
       <c r="G95" s="130" t="n"/>
       <c r="H95" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I95" s="130" t="n"/>
       <c r="J95" s="50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K95" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L95" s="134" t="s">
         <v>90</v>
@@ -13575,10 +13707,10 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="50" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B96" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C96" s="130" t="n"/>
       <c r="D96" s="130" t="n"/>
@@ -13586,14 +13718,14 @@
       <c r="F96" s="130" t="n"/>
       <c r="G96" s="130" t="n"/>
       <c r="H96" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I96" s="130" t="n"/>
       <c r="J96" s="50" t="s">
         <v>329</v>
       </c>
       <c r="K96" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L96" s="134" t="s">
         <v>90</v>
@@ -13608,10 +13740,10 @@
     </row>
     <row r="97" spans="1:19">
       <c r="A97" s="50" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B97" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C97" s="130" t="n"/>
       <c r="D97" s="130" t="n"/>
@@ -13619,14 +13751,14 @@
       <c r="F97" s="130" t="n"/>
       <c r="G97" s="130" t="n"/>
       <c r="H97" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I97" s="130" t="n"/>
       <c r="J97" s="50" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K97" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L97" s="134" t="s">
         <v>90</v>
@@ -13641,10 +13773,10 @@
     </row>
     <row r="98" spans="1:19">
       <c r="A98" s="50" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B98" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C98" s="130" t="n"/>
       <c r="D98" s="130" t="n"/>
@@ -13652,14 +13784,14 @@
       <c r="F98" s="130" t="n"/>
       <c r="G98" s="130" t="n"/>
       <c r="H98" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I98" s="130" t="n"/>
       <c r="J98" s="50" t="s">
         <v>331</v>
       </c>
       <c r="K98" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L98" s="134" t="s">
         <v>90</v>
@@ -13674,10 +13806,10 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="50" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B99" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C99" s="130" t="n"/>
       <c r="D99" s="130" t="n"/>
@@ -13685,14 +13817,14 @@
       <c r="F99" s="130" t="n"/>
       <c r="G99" s="130" t="n"/>
       <c r="H99" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I99" s="130" t="n"/>
       <c r="J99" s="50" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K99" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L99" s="134" t="s">
         <v>90</v>
@@ -13707,10 +13839,10 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="50" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B100" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C100" s="130" t="n"/>
       <c r="D100" s="130" t="n"/>
@@ -13718,14 +13850,14 @@
       <c r="F100" s="130" t="n"/>
       <c r="G100" s="130" t="n"/>
       <c r="H100" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I100" s="130" t="n"/>
       <c r="J100" s="50" t="s">
         <v>333</v>
       </c>
       <c r="K100" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L100" s="134" t="s">
         <v>90</v>
@@ -13740,10 +13872,10 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="50" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B101" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C101" s="130" t="n"/>
       <c r="D101" s="130" t="n"/>
@@ -13751,14 +13883,14 @@
       <c r="F101" s="130" t="n"/>
       <c r="G101" s="130" t="n"/>
       <c r="H101" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I101" s="130" t="n"/>
       <c r="J101" s="50" t="s">
         <v>334</v>
       </c>
       <c r="K101" s="50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L101" s="134" t="s">
         <v>90</v>
@@ -13773,10 +13905,10 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="50" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B102" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C102" s="130" t="n"/>
       <c r="D102" s="130" t="n"/>
@@ -13784,14 +13916,14 @@
       <c r="F102" s="130" t="n"/>
       <c r="G102" s="130" t="n"/>
       <c r="H102" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I102" s="130" t="n"/>
       <c r="J102" s="50" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K102" s="50" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L102" s="134" t="s">
         <v>90</v>
@@ -13806,10 +13938,10 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="50" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B103" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C103" s="130" t="n"/>
       <c r="D103" s="130" t="n"/>
@@ -13817,14 +13949,14 @@
       <c r="F103" s="130" t="n"/>
       <c r="G103" s="130" t="n"/>
       <c r="H103" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I103" s="130" t="n"/>
       <c r="J103" s="50" t="s">
         <v>335</v>
       </c>
       <c r="K103" s="50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L103" s="134" t="s">
         <v>90</v>
@@ -13839,10 +13971,10 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="50" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B104" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C104" s="130" t="n"/>
       <c r="D104" s="130" t="n"/>
@@ -13850,14 +13982,14 @@
       <c r="F104" s="130" t="n"/>
       <c r="G104" s="130" t="n"/>
       <c r="H104" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I104" s="130" t="n"/>
       <c r="J104" s="50" t="s">
         <v>336</v>
       </c>
       <c r="K104" s="50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L104" s="134" t="s">
         <v>90</v>
@@ -13872,10 +14004,10 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B105" s="128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C105" s="130" t="n"/>
       <c r="D105" s="130" t="n"/>
@@ -13883,14 +14015,14 @@
       <c r="F105" s="130" t="n"/>
       <c r="G105" s="130" t="n"/>
       <c r="H105" s="130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I105" s="130" t="n"/>
       <c r="J105" s="50" t="s">
         <v>340</v>
       </c>
       <c r="K105" s="50" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L105" s="134" t="s">
         <v>90</v>
@@ -13905,7 +14037,7 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="50" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B106" s="128" t="n"/>
       <c r="C106" s="130" t="n"/>
@@ -13928,7 +14060,7 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="50" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B107" s="128" t="n"/>
       <c r="C107" s="130" t="n"/>
@@ -13951,7 +14083,7 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="50" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B108" s="128" t="n"/>
       <c r="C108" s="130" t="n"/>
@@ -13974,7 +14106,7 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="50" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B109" s="128" t="n"/>
       <c r="C109" s="130" t="n"/>
@@ -13997,7 +14129,7 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="50" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B110" s="128" t="n"/>
       <c r="C110" s="130" t="n"/>
@@ -14020,7 +14152,7 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="50" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B111" s="128" t="n"/>
       <c r="C111" s="130" t="n"/>
@@ -14043,7 +14175,7 @@
     </row>
     <row r="112" spans="1:19">
       <c r="A112" s="50" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B112" s="128" t="n"/>
       <c r="C112" s="130" t="n"/>
@@ -14066,7 +14198,7 @@
     </row>
     <row r="113" spans="1:19">
       <c r="A113" s="50" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B113" s="128" t="n"/>
       <c r="C113" s="130" t="n"/>
@@ -14089,7 +14221,7 @@
     </row>
     <row r="114" spans="1:19">
       <c r="A114" s="50" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B114" s="128" t="n"/>
       <c r="C114" s="130" t="n"/>
@@ -14112,7 +14244,7 @@
     </row>
     <row r="115" spans="1:19">
       <c r="A115" s="50" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B115" s="128" t="n"/>
       <c r="C115" s="130" t="n"/>
@@ -14135,7 +14267,7 @@
     </row>
     <row r="116" spans="1:19">
       <c r="A116" s="50" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B116" s="128" t="n"/>
       <c r="C116" s="130" t="n"/>
@@ -14158,7 +14290,7 @@
     </row>
     <row r="117" spans="1:19">
       <c r="A117" s="50" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B117" s="128" t="n"/>
       <c r="C117" s="130" t="n"/>
@@ -14181,7 +14313,7 @@
     </row>
     <row r="118" spans="1:19">
       <c r="A118" s="50" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B118" s="128" t="n"/>
       <c r="C118" s="130" t="n"/>
@@ -14204,7 +14336,7 @@
     </row>
     <row r="119" spans="1:19">
       <c r="A119" s="50" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B119" s="128" t="n"/>
       <c r="C119" s="130" t="n"/>
@@ -14227,7 +14359,7 @@
     </row>
     <row r="120" spans="1:19">
       <c r="A120" s="50" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B120" s="128" t="n"/>
       <c r="C120" s="130" t="n"/>
@@ -14250,7 +14382,7 @@
     </row>
     <row r="121" spans="1:19">
       <c r="A121" s="50" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B121" s="128" t="n"/>
       <c r="C121" s="130" t="n"/>
@@ -14273,7 +14405,7 @@
     </row>
     <row r="122" spans="1:19">
       <c r="A122" s="50" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B122" s="128" t="n"/>
       <c r="C122" s="130" t="n"/>
@@ -14296,7 +14428,7 @@
     </row>
     <row r="123" spans="1:19">
       <c r="A123" s="50" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B123" s="128" t="n"/>
       <c r="C123" s="130" t="n"/>
@@ -14319,7 +14451,7 @@
     </row>
     <row r="124" spans="1:19">
       <c r="A124" s="50" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B124" s="128" t="n"/>
       <c r="C124" s="130" t="n"/>
@@ -14342,7 +14474,7 @@
     </row>
     <row r="125" spans="1:19">
       <c r="A125" s="50" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B125" s="128" t="n"/>
       <c r="C125" s="130" t="n"/>
@@ -14365,7 +14497,7 @@
     </row>
     <row r="126" spans="1:19">
       <c r="A126" s="50" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B126" s="128" t="n"/>
       <c r="C126" s="130" t="n"/>
@@ -14388,7 +14520,7 @@
     </row>
     <row r="127" spans="1:19">
       <c r="A127" s="50" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B127" s="128" t="n"/>
       <c r="C127" s="130" t="n"/>
@@ -14430,42 +14562,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Blad6">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G86"/>
+  <dimension ref="A2:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D44:D56"/>
+    <sheetView workbookViewId="0" zoomScale="160" zoomScaleNormal="160">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="137" width="17.7109375"/>
-    <col customWidth="1" max="3" min="3" style="137" width="25.28515625"/>
-    <col customWidth="1" max="5" min="5" style="137" width="23.28515625"/>
-    <col customWidth="1" max="6" min="6" style="137" width="14.42578125"/>
-    <col customWidth="1" max="7" min="7" style="137" width="17.7109375"/>
+    <col customWidth="1" max="1" min="1" style="138" width="23.42578125"/>
+    <col customWidth="1" max="2" min="2" style="138" width="35.140625"/>
+    <col customWidth="1" max="3" min="3" style="138" width="25.28515625"/>
+    <col customWidth="1" max="4" min="4" style="138" width="25.28515625"/>
+    <col customWidth="1" max="6" min="6" style="138" width="23.28515625"/>
+    <col customWidth="1" max="7" min="7" style="138" width="14.42578125"/>
+    <col customWidth="1" max="8" min="8" style="138" width="17.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="B2" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="B3" s="6" t="n"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" t="s">
         <v>552</v>
       </c>
       <c r="E4" t="s">
@@ -14474,503 +14605,632 @@
       <c r="F4" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>555</v>
-      </c>
-      <c r="E5" t="s">
         <v>556</v>
       </c>
       <c r="F5" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="119" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F8" t="s">
+        <v>562</v>
+      </c>
+      <c r="H8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>556</v>
+      </c>
+      <c r="F9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H9" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="119" t="s">
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
         <v>559</v>
       </c>
-      <c r="C8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" t="s">
-        <v>552</v>
-      </c>
-      <c r="E8" t="s">
-        <v>561</v>
-      </c>
-      <c r="G8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="C9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E9" t="s">
-        <v>429</v>
-      </c>
-      <c r="G9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G10" t="s">
         <v>558</v>
       </c>
-      <c r="E10" t="s">
-        <v>562</v>
-      </c>
-      <c r="F10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
-        <v>564</v>
-      </c>
-      <c r="D12" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="E12" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F12" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="C13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E13" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="F13" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" t="s">
+        <v>571</v>
+      </c>
+      <c r="E16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" t="s">
+        <v>572</v>
+      </c>
+      <c r="H16" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="C17" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="C18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>574</v>
+      </c>
+      <c r="C20" t="s">
+        <v>575</v>
+      </c>
+      <c r="E20" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" t="s">
+        <v>576</v>
+      </c>
+      <c r="G20" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="C21" t="s">
+        <v>556</v>
+      </c>
+      <c r="F21" t="s">
+        <v>577</v>
+      </c>
+      <c r="G21" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>569</v>
-      </c>
-      <c r="C16" t="s">
-        <v>570</v>
-      </c>
-      <c r="D16" t="s">
-        <v>552</v>
-      </c>
-      <c r="E16" t="s">
-        <v>571</v>
-      </c>
-      <c r="G16" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="C17" t="s">
+    <row r="22" spans="1:8">
+      <c r="C22" t="s">
+        <v>559</v>
+      </c>
+      <c r="F22" t="s">
+        <v>578</v>
+      </c>
+      <c r="G22" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" t="s">
+        <v>580</v>
+      </c>
+      <c r="E24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F24" t="s">
+        <v>566</v>
+      </c>
+      <c r="G24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
+        <v>584</v>
+      </c>
+      <c r="C28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" t="s">
+        <v>553</v>
+      </c>
+      <c r="F28" t="s">
+        <v>585</v>
+      </c>
+      <c r="G28" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="C18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C20" t="s">
-        <v>574</v>
-      </c>
-      <c r="D20" t="s">
-        <v>552</v>
-      </c>
-      <c r="E20" t="s">
-        <v>575</v>
-      </c>
-      <c r="F20" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="C21" t="s">
+    <row r="29" spans="1:8">
+      <c r="C29" t="s">
+        <v>586</v>
+      </c>
+      <c r="F29" t="s">
+        <v>587</v>
+      </c>
+      <c r="G29" t="s">
         <v>555</v>
       </c>
-      <c r="E21" t="s">
-        <v>576</v>
-      </c>
-      <c r="F21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" t="s">
-        <v>558</v>
-      </c>
-      <c r="E22" t="s">
-        <v>577</v>
-      </c>
-      <c r="F22" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
-        <v>578</v>
-      </c>
-      <c r="C24" t="s">
-        <v>579</v>
-      </c>
-      <c r="D24" t="s">
-        <v>552</v>
-      </c>
-      <c r="E24" t="s">
-        <v>565</v>
-      </c>
-      <c r="F24" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
-        <v>583</v>
-      </c>
-      <c r="C28" t="s">
-        <v>560</v>
-      </c>
-      <c r="D28" t="s">
-        <v>552</v>
-      </c>
-      <c r="E28" t="s">
-        <v>584</v>
-      </c>
-      <c r="F28" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="C29" t="s">
-        <v>585</v>
-      </c>
-      <c r="E29" t="s">
-        <v>586</v>
-      </c>
-      <c r="F29" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="119" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C42" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="43" s="137" spans="1:7"/>
-    <row r="44" spans="1:7">
+      <c r="D42" s="119" t="n"/>
+      <c r="E42" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="43" s="138" spans="1:8"/>
+    <row r="44" spans="1:8">
       <c r="A44" s="119" t="s">
-        <v>589</v>
+        <v>594</v>
+      </c>
+      <c r="B44" t="s">
+        <v>595</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>590</v>
-      </c>
-      <c r="D44" t="s">
+        <v>596</v>
+      </c>
+      <c r="D44" s="119" t="n"/>
+      <c r="E44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="119" t="s">
-        <v>591</v>
+        <v>597</v>
+      </c>
+      <c r="B45" t="s">
+        <v>598</v>
       </c>
       <c r="C45" s="119" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="D45" s="119" t="n"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="119" t="s">
         <v>314</v>
       </c>
+      <c r="B46" t="s">
+        <v>599</v>
+      </c>
       <c r="C46" s="119" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>600</v>
+      </c>
+      <c r="D46" s="119" t="n"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="119" t="s">
-        <v>593</v>
+        <v>601</v>
+      </c>
+      <c r="B47" t="s">
+        <v>602</v>
       </c>
       <c r="C47" s="119" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>603</v>
+      </c>
+      <c r="D47" s="119" t="n"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="119" t="s">
         <v>164</v>
       </c>
+      <c r="B48" t="s">
+        <v>604</v>
+      </c>
       <c r="C48" s="119" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>605</v>
+      </c>
+      <c r="D48" s="119" t="n"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="119" t="s">
         <v>209</v>
       </c>
+      <c r="B49" t="s">
+        <v>606</v>
+      </c>
       <c r="C49" s="119" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>607</v>
+      </c>
+      <c r="D49" s="119" t="n"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="119" t="s">
         <v>296</v>
       </c>
+      <c r="B50" t="s">
+        <v>608</v>
+      </c>
       <c r="C50" s="119" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="D50" s="119" t="n"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="119" t="s">
-        <v>597</v>
+        <v>609</v>
+      </c>
+      <c r="B51" t="s">
+        <v>610</v>
       </c>
       <c r="C51" s="119" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>611</v>
+      </c>
+      <c r="D51" s="119" t="n"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="119" t="s">
         <v>196</v>
       </c>
+      <c r="B52" t="s">
+        <v>610</v>
+      </c>
       <c r="C52" s="119" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="D52" s="119" t="n"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="119" t="s">
         <v>285</v>
       </c>
+      <c r="B53" t="s">
+        <v>610</v>
+      </c>
       <c r="C53" s="119" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>612</v>
+      </c>
+      <c r="D53" s="119" t="n"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="119" t="s">
         <v>261</v>
       </c>
+      <c r="B54" t="s">
+        <v>613</v>
+      </c>
       <c r="C54" s="119" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" s="137" spans="1:7">
+      <c r="D54" s="119" t="n"/>
+    </row>
+    <row r="55" s="138" spans="1:8">
       <c r="A55" s="119" t="s">
-        <v>600</v>
+        <v>614</v>
+      </c>
+      <c r="B55" t="s">
+        <v>595</v>
       </c>
       <c r="C55" s="119" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="D55" s="119" t="n"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="119" t="s">
         <v>288</v>
       </c>
+      <c r="B56" t="s">
+        <v>615</v>
+      </c>
       <c r="C56" s="119" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="D56" s="119" t="n"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="119" t="s">
         <v>235</v>
       </c>
+      <c r="B57" t="s">
+        <v>616</v>
+      </c>
       <c r="C57" s="119" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="D57" s="119" t="n"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="119" t="s">
         <v>267</v>
       </c>
+      <c r="B58" t="s">
+        <v>613</v>
+      </c>
       <c r="C58" s="119" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>617</v>
+      </c>
+      <c r="D58" s="119" t="n"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="119" t="s">
         <v>106</v>
       </c>
+      <c r="B59" t="s">
+        <v>606</v>
+      </c>
       <c r="C59" s="119" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>618</v>
+      </c>
+      <c r="D59" s="119" t="n"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="119" t="s">
         <v>179</v>
       </c>
+      <c r="B60" t="s">
+        <v>608</v>
+      </c>
       <c r="C60" s="119" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="D60" s="119" t="n"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="119" t="s">
-        <v>603</v>
+        <v>619</v>
+      </c>
+      <c r="B61" t="s">
+        <v>610</v>
       </c>
       <c r="C61" s="119" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="D61" s="119" t="n"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="119" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="B62" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="119" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="119" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="B64" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="119" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="B65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="119" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="B66" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="119" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>622</v>
+      </c>
+      <c r="B67" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="119" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="B68" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="119" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="B69" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="119" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>624</v>
+      </c>
+      <c r="B70" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="119" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="B71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="119" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="B72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="119" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="B73" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="119" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="119" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="119" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="119" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="119" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="119" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="119" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="119" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="119" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="119" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="119" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="119" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -14980,6 +15240,7 @@
     </sortState>
   </autoFilter>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -14989,25 +15250,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="137" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="137" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="137" width="5.7109375"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="137" width="12"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="137" width="11.140625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="137" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="137" width="4.28515625"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="137" width="12"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="137" width="6.85546875"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="137" width="10.28515625"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="137" width="19"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="138" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="138" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="138" width="5.7109375"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="138" width="12"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="138" width="11.140625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="138" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="138" width="4.28515625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="138" width="12"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="138" width="6.85546875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="138" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="138" width="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -15018,7 +15279,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="D1" s="117" t="s">
         <v>361</v>
@@ -15040,10 +15301,10 @@
         <v>343</v>
       </c>
       <c r="L1" s="117" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="M1" s="117" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -15280,7 +15541,374 @@
       <c r="L19" s="111" t="n"/>
       <c r="M19" s="111" t="n"/>
     </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="111" t="n"/>
+      <c r="B20" s="111" t="n"/>
+      <c r="C20" s="111" t="n"/>
+      <c r="D20" s="111" t="n"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="111" t="n"/>
+      <c r="B21" s="111" t="n"/>
+      <c r="C21" s="111" t="n"/>
+      <c r="D21" s="111" t="n"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="111" t="n"/>
+      <c r="B22" s="111" t="n"/>
+      <c r="C22" s="111" t="n"/>
+      <c r="D22" s="111" t="n"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="111" t="n"/>
+      <c r="B23" s="111" t="n"/>
+      <c r="C23" s="111" t="n"/>
+      <c r="D23" s="111" t="n"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="111" t="n"/>
+      <c r="B24" s="111" t="n"/>
+      <c r="C24" s="111" t="n"/>
+      <c r="D24" s="111" t="n"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="111" t="n"/>
+      <c r="B25" s="111" t="n"/>
+      <c r="C25" s="111" t="n"/>
+      <c r="D25" s="111" t="n"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="111" t="n"/>
+      <c r="B26" s="111" t="n"/>
+      <c r="C26" s="111" t="n"/>
+      <c r="D26" s="111" t="n"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="111" t="n"/>
+      <c r="B27" s="111" t="n"/>
+      <c r="C27" s="111" t="n"/>
+      <c r="D27" s="111" t="n"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="111" t="n"/>
+      <c r="B28" s="111" t="n"/>
+      <c r="C28" s="111" t="n"/>
+      <c r="D28" s="111" t="n"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="111" t="n"/>
+      <c r="B29" s="111" t="n"/>
+      <c r="C29" s="111" t="n"/>
+      <c r="D29" s="111" t="n"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="111" t="n"/>
+      <c r="B30" s="111" t="n"/>
+      <c r="C30" s="111" t="n"/>
+      <c r="D30" s="111" t="n"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="111" t="n"/>
+      <c r="B31" s="111" t="n"/>
+      <c r="C31" s="111" t="n"/>
+      <c r="D31" s="111" t="n"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="111" t="n"/>
+      <c r="B32" s="111" t="n"/>
+      <c r="C32" s="111" t="n"/>
+      <c r="D32" s="111" t="n"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="111" t="n"/>
+      <c r="B33" s="111" t="n"/>
+      <c r="C33" s="111" t="n"/>
+      <c r="D33" s="111" t="n"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="111" t="n"/>
+      <c r="B34" s="111" t="n"/>
+      <c r="C34" s="111" t="n"/>
+      <c r="D34" s="111" t="n"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="111" t="n"/>
+      <c r="B35" s="111" t="n"/>
+      <c r="C35" s="111" t="n"/>
+      <c r="D35" s="111" t="n"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="111" t="n"/>
+      <c r="B36" s="111" t="n"/>
+      <c r="C36" s="111" t="n"/>
+      <c r="D36" s="111" t="n"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="111" t="n"/>
+      <c r="B37" s="111" t="n"/>
+      <c r="C37" s="111" t="n"/>
+      <c r="D37" s="111" t="n"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="111" t="n"/>
+      <c r="B38" s="111" t="n"/>
+      <c r="C38" s="111" t="n"/>
+      <c r="D38" s="111" t="n"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="111" t="n"/>
+      <c r="B39" s="111" t="n"/>
+      <c r="C39" s="111" t="n"/>
+      <c r="D39" s="111" t="n"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="111" t="n"/>
+      <c r="B40" s="111" t="n"/>
+      <c r="C40" s="111" t="n"/>
+      <c r="D40" s="111" t="n"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="111" t="n"/>
+      <c r="B41" s="111" t="n"/>
+      <c r="C41" s="111" t="n"/>
+      <c r="D41" s="111" t="n"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="111" t="n"/>
+      <c r="B42" s="111" t="n"/>
+      <c r="C42" s="111" t="n"/>
+      <c r="D42" s="111" t="n"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="111" t="n"/>
+      <c r="B43" s="111" t="n"/>
+      <c r="C43" s="111" t="n"/>
+      <c r="D43" s="111" t="n"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="111" t="n"/>
+      <c r="B44" s="111" t="n"/>
+      <c r="C44" s="111" t="n"/>
+      <c r="D44" s="111" t="n"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="111" t="n"/>
+      <c r="B45" s="111" t="n"/>
+      <c r="C45" s="111" t="n"/>
+      <c r="D45" s="111" t="n"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="111" t="n"/>
+      <c r="B46" s="111" t="n"/>
+      <c r="C46" s="111" t="n"/>
+      <c r="D46" s="111" t="n"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="111" t="n"/>
+      <c r="B47" s="111" t="n"/>
+      <c r="C47" s="111" t="n"/>
+      <c r="D47" s="111" t="n"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="111" t="n"/>
+      <c r="B48" s="111" t="n"/>
+      <c r="C48" s="111" t="n"/>
+      <c r="D48" s="111" t="n"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="111" t="n"/>
+      <c r="B49" s="111" t="n"/>
+      <c r="C49" s="111" t="n"/>
+      <c r="D49" s="111" t="n"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="111" t="n"/>
+      <c r="B50" s="111" t="n"/>
+      <c r="C50" s="111" t="n"/>
+      <c r="D50" s="111" t="n"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="111" t="n"/>
+      <c r="B51" s="111" t="n"/>
+      <c r="C51" s="111" t="n"/>
+      <c r="D51" s="111" t="n"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="111" t="n"/>
+      <c r="B52" s="111" t="n"/>
+      <c r="C52" s="111" t="n"/>
+      <c r="D52" s="111" t="n"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="111" t="n"/>
+      <c r="B53" s="111" t="n"/>
+      <c r="C53" s="111" t="n"/>
+      <c r="D53" s="111" t="n"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="111" t="n"/>
+      <c r="B54" s="111" t="n"/>
+      <c r="C54" s="111" t="n"/>
+      <c r="D54" s="111" t="n"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="111" t="n"/>
+      <c r="B55" s="111" t="n"/>
+      <c r="C55" s="111" t="n"/>
+      <c r="D55" s="111" t="n"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="111" t="n"/>
+      <c r="B56" s="111" t="n"/>
+      <c r="C56" s="111" t="n"/>
+      <c r="D56" s="111" t="n"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="111" t="n"/>
+      <c r="B57" s="111" t="n"/>
+      <c r="C57" s="111" t="n"/>
+      <c r="D57" s="111" t="n"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="111" t="n"/>
+      <c r="B58" s="111" t="n"/>
+      <c r="C58" s="111" t="n"/>
+      <c r="D58" s="111" t="n"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="111" t="n"/>
+      <c r="B59" s="111" t="n"/>
+      <c r="C59" s="111" t="n"/>
+      <c r="D59" s="111" t="n"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="111" t="n"/>
+      <c r="B60" s="111" t="n"/>
+      <c r="C60" s="111" t="n"/>
+      <c r="D60" s="111" t="n"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="111" t="n"/>
+      <c r="B61" s="111" t="n"/>
+      <c r="C61" s="111" t="n"/>
+      <c r="D61" s="111" t="n"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="111" t="n"/>
+      <c r="B62" s="111" t="n"/>
+      <c r="C62" s="111" t="n"/>
+      <c r="D62" s="111" t="n"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="111" t="n"/>
+      <c r="B63" s="111" t="n"/>
+      <c r="C63" s="111" t="n"/>
+      <c r="D63" s="111" t="n"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="111" t="n"/>
+      <c r="B64" s="111" t="n"/>
+      <c r="C64" s="111" t="n"/>
+      <c r="D64" s="111" t="n"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="111" t="n"/>
+      <c r="B65" s="111" t="n"/>
+      <c r="C65" s="111" t="n"/>
+      <c r="D65" s="111" t="n"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="111" t="n"/>
+      <c r="B66" s="111" t="n"/>
+      <c r="C66" s="111" t="n"/>
+      <c r="D66" s="111" t="n"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="111" t="n"/>
+      <c r="B67" s="111" t="n"/>
+      <c r="C67" s="111" t="n"/>
+      <c r="D67" s="111" t="n"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="111" t="n"/>
+      <c r="B68" s="111" t="n"/>
+      <c r="C68" s="111" t="n"/>
+      <c r="D68" s="111" t="n"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="111" t="n"/>
+      <c r="B69" s="111" t="n"/>
+      <c r="C69" s="111" t="n"/>
+      <c r="D69" s="111" t="n"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="111" t="n"/>
+      <c r="B70" s="111" t="n"/>
+      <c r="C70" s="111" t="n"/>
+      <c r="D70" s="111" t="n"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="111" t="n"/>
+      <c r="B71" s="111" t="n"/>
+      <c r="C71" s="111" t="n"/>
+      <c r="D71" s="111" t="n"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="111" t="n"/>
+      <c r="B72" s="111" t="n"/>
+      <c r="C72" s="111" t="n"/>
+      <c r="D72" s="111" t="n"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="111" t="n"/>
+      <c r="B73" s="111" t="n"/>
+      <c r="C73" s="111" t="n"/>
+      <c r="D73" s="111" t="n"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="111" t="n"/>
+      <c r="B74" s="111" t="n"/>
+      <c r="C74" s="111" t="n"/>
+      <c r="D74" s="111" t="n"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="111" t="n"/>
+      <c r="B75" s="111" t="n"/>
+      <c r="C75" s="111" t="n"/>
+      <c r="D75" s="111" t="n"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="111" t="n"/>
+      <c r="B76" s="111" t="n"/>
+      <c r="C76" s="111" t="n"/>
+      <c r="D76" s="111" t="n"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="111" t="n"/>
+      <c r="B77" s="111" t="n"/>
+      <c r="C77" s="111" t="n"/>
+      <c r="D77" s="111" t="n"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="111" t="n"/>
+      <c r="B78" s="111" t="n"/>
+      <c r="C78" s="111" t="n"/>
+      <c r="D78" s="111" t="n"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="111" t="n"/>
+      <c r="B79" s="111" t="n"/>
+      <c r="C79" s="111" t="n"/>
+      <c r="D79" s="111" t="n"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="111" t="n"/>
+      <c r="B80" s="111" t="n"/>
+      <c r="C80" s="111" t="n"/>
+      <c r="D80" s="111" t="n"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/AS1_genererad.xlsx
+++ b/AS1_genererad.xlsx
@@ -1936,7 +1936,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -2092,6 +2092,9 @@
       <name val="Tahoma"/>
       <color indexed="81"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2474,7 +2477,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -2752,6 +2755,8 @@
     <xf applyAlignment="1" borderId="26" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -9132,7 +9137,9 @@
       <c r="J4" s="21" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="5" s="138" spans="1:10">
-      <c r="A5" s="111" t="n"/>
+      <c r="A5" s="147" t="s">
+        <v>105</v>
+      </c>
       <c r="B5" s="111" t="n"/>
       <c r="C5" s="20" t="n"/>
       <c r="D5" s="20" t="n"/>
@@ -9144,8 +9151,12 @@
       <c r="J5" s="21" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="6" s="138" spans="1:10">
-      <c r="A6" s="111" t="n"/>
-      <c r="B6" s="111" t="n"/>
+      <c r="A6" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="20" t="n"/>
       <c r="D6" s="20" t="n"/>
       <c r="E6" s="20" t="n"/>
@@ -9156,8 +9167,12 @@
       <c r="J6" s="21" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="7" s="138" spans="1:10">
-      <c r="A7" s="111" t="n"/>
-      <c r="B7" s="111" t="n"/>
+      <c r="A7" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>109</v>
+      </c>
       <c r="C7" s="20" t="s">
         <v>355</v>
       </c>
@@ -9170,8 +9185,12 @@
       <c r="J7" s="21" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="8" s="138" spans="1:10">
-      <c r="A8" s="111" t="n"/>
-      <c r="B8" s="111" t="n"/>
+      <c r="A8" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>111</v>
+      </c>
       <c r="C8" s="22" t="n"/>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="n"/>
@@ -9182,8 +9201,12 @@
       <c r="J8" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="9" s="138" spans="1:10">
-      <c r="A9" s="111" t="n"/>
-      <c r="B9" s="111" t="n"/>
+      <c r="A9" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>106</v>
+      </c>
       <c r="C9" s="22" t="n"/>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="n"/>
@@ -9194,8 +9217,12 @@
       <c r="J9" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="10" s="138" spans="1:10">
-      <c r="A10" s="111" t="n"/>
-      <c r="B10" s="111" t="n"/>
+      <c r="A10" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>114</v>
+      </c>
       <c r="C10" s="21" t="n"/>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="22" t="n"/>
@@ -9206,8 +9233,12 @@
       <c r="J10" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="11" s="138" spans="1:10">
-      <c r="A11" s="111" t="n"/>
-      <c r="B11" s="111" t="n"/>
+      <c r="A11" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>116</v>
+      </c>
       <c r="C11" s="22" t="n"/>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="n"/>
@@ -9218,8 +9249,12 @@
       <c r="J11" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="12" s="138" spans="1:10">
-      <c r="A12" s="111" t="n"/>
-      <c r="B12" s="111" t="n"/>
+      <c r="A12" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>118</v>
+      </c>
       <c r="C12" s="22" t="n"/>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="n"/>
@@ -9230,8 +9265,12 @@
       <c r="J12" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="13" s="138" spans="1:10">
-      <c r="A13" s="111" t="n"/>
-      <c r="B13" s="111" t="n"/>
+      <c r="A13" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="22" t="n"/>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="n"/>
@@ -9242,8 +9281,12 @@
       <c r="J13" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="14" s="138" spans="1:10">
-      <c r="A14" s="111" t="n"/>
-      <c r="B14" s="111" t="n"/>
+      <c r="A14" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>122</v>
+      </c>
       <c r="C14" s="22" t="n"/>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="n"/>
@@ -9254,8 +9297,12 @@
       <c r="J14" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="15" s="138" spans="1:10">
-      <c r="A15" s="111" t="n"/>
-      <c r="B15" s="111" t="n"/>
+      <c r="A15" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>124</v>
+      </c>
       <c r="C15" s="22" t="n"/>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="n"/>
@@ -9266,8 +9313,12 @@
       <c r="J15" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="16" s="138" spans="1:10">
-      <c r="A16" s="111" t="n"/>
-      <c r="B16" s="111" t="n"/>
+      <c r="A16" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>126</v>
+      </c>
       <c r="C16" s="22" t="n"/>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="n"/>
@@ -9278,8 +9329,12 @@
       <c r="J16" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="17" s="138" spans="1:10">
-      <c r="A17" s="111" t="n"/>
-      <c r="B17" s="111" t="n"/>
+      <c r="A17" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>128</v>
+      </c>
       <c r="C17" s="22" t="n"/>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="n"/>
@@ -9290,8 +9345,12 @@
       <c r="J17" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="18" s="138" spans="1:10">
-      <c r="A18" s="111" t="n"/>
-      <c r="B18" s="111" t="n"/>
+      <c r="A18" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>130</v>
+      </c>
       <c r="C18" s="22" t="n"/>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="n"/>
@@ -9302,8 +9361,12 @@
       <c r="J18" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="19" s="138" spans="1:10">
-      <c r="A19" s="111" t="n"/>
-      <c r="B19" s="111" t="n"/>
+      <c r="A19" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>132</v>
+      </c>
       <c r="C19" s="22" t="n"/>
       <c r="D19" s="22" t="n"/>
       <c r="E19" s="22" t="n"/>
@@ -9314,8 +9377,12 @@
       <c r="J19" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="20" s="138" spans="1:10">
-      <c r="A20" s="111" t="n"/>
-      <c r="B20" s="111" t="n"/>
+      <c r="A20" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C20" s="22" t="n"/>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="n"/>
@@ -9326,8 +9393,12 @@
       <c r="J20" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="21" s="138" spans="1:10">
-      <c r="A21" s="111" t="n"/>
-      <c r="B21" s="111" t="n"/>
+      <c r="A21" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C21" s="22" t="n"/>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="n"/>
@@ -9338,8 +9409,12 @@
       <c r="J21" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="22" s="138" spans="1:10">
-      <c r="A22" s="111" t="n"/>
-      <c r="B22" s="111" t="n"/>
+      <c r="A22" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C22" s="22" t="n"/>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="n"/>
@@ -9350,8 +9425,12 @@
       <c r="J22" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="23" s="138" spans="1:10">
-      <c r="A23" s="111" t="n"/>
-      <c r="B23" s="111" t="n"/>
+      <c r="A23" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C23" s="22" t="n"/>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="n"/>
@@ -9362,8 +9441,12 @@
       <c r="J23" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="24" s="138" spans="1:10">
-      <c r="A24" s="111" t="n"/>
-      <c r="B24" s="111" t="n"/>
+      <c r="A24" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C24" s="22" t="n"/>
       <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="n"/>
@@ -9374,8 +9457,12 @@
       <c r="J24" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="25" s="138" spans="1:10">
-      <c r="A25" s="111" t="n"/>
-      <c r="B25" s="111" t="n"/>
+      <c r="A25" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C25" s="22" t="n"/>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="n"/>
@@ -9386,8 +9473,12 @@
       <c r="J25" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="26" s="138" spans="1:10">
-      <c r="A26" s="111" t="n"/>
-      <c r="B26" s="111" t="n"/>
+      <c r="A26" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C26" s="22" t="n"/>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="n"/>
@@ -9398,8 +9489,12 @@
       <c r="J26" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="27" s="138" spans="1:10">
-      <c r="A27" s="111" t="n"/>
-      <c r="B27" s="111" t="n"/>
+      <c r="A27" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C27" s="22" t="n"/>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="n"/>
@@ -9410,8 +9505,12 @@
       <c r="J27" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="28" s="138" spans="1:10">
-      <c r="A28" s="111" t="n"/>
-      <c r="B28" s="111" t="n"/>
+      <c r="A28" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C28" s="22" t="n"/>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="n"/>
@@ -9422,8 +9521,12 @@
       <c r="J28" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="29" s="138" spans="1:10">
-      <c r="A29" s="111" t="n"/>
-      <c r="B29" s="111" t="n"/>
+      <c r="A29" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="111" t="s">
+        <v>146</v>
+      </c>
       <c r="C29" s="22" t="n"/>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="n"/>
@@ -9434,8 +9537,12 @@
       <c r="J29" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="30" s="138" spans="1:10">
-      <c r="A30" s="111" t="n"/>
-      <c r="B30" s="111" t="n"/>
+      <c r="A30" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>149</v>
+      </c>
       <c r="C30" s="22" t="n"/>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="n"/>
@@ -9446,8 +9553,12 @@
       <c r="J30" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="31" s="138" spans="1:10">
-      <c r="A31" s="111" t="n"/>
-      <c r="B31" s="111" t="n"/>
+      <c r="A31" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="111" t="s">
+        <v>151</v>
+      </c>
       <c r="C31" s="22" t="n"/>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="n"/>
@@ -9458,8 +9569,12 @@
       <c r="J31" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="32" s="138" spans="1:10">
-      <c r="A32" s="111" t="n"/>
-      <c r="B32" s="111" t="n"/>
+      <c r="A32" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="111" t="s">
+        <v>153</v>
+      </c>
       <c r="C32" s="22" t="n"/>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="n"/>
@@ -9470,8 +9585,12 @@
       <c r="J32" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="33" s="138" spans="1:10">
-      <c r="A33" s="111" t="n"/>
-      <c r="B33" s="111" t="n"/>
+      <c r="A33" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="111" t="s">
+        <v>155</v>
+      </c>
       <c r="C33" s="22" t="n"/>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="n"/>
@@ -9482,8 +9601,12 @@
       <c r="J33" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="34" s="138" spans="1:10">
-      <c r="A34" s="111" t="n"/>
-      <c r="B34" s="111" t="n"/>
+      <c r="A34" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="111" t="s">
+        <v>157</v>
+      </c>
       <c r="C34" s="22" t="n"/>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="n"/>
@@ -9494,8 +9617,12 @@
       <c r="J34" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="35" s="138" spans="1:10">
-      <c r="A35" s="111" t="n"/>
-      <c r="B35" s="111" t="n"/>
+      <c r="A35" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C35" s="22" t="n"/>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="n"/>
@@ -9506,8 +9633,12 @@
       <c r="J35" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="36" s="138" spans="1:10">
-      <c r="A36" s="111" t="n"/>
-      <c r="B36" s="111" t="n"/>
+      <c r="A36" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C36" s="22" t="n"/>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="n"/>
@@ -9518,8 +9649,12 @@
       <c r="J36" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="37" s="138" spans="1:10">
-      <c r="A37" s="111" t="n"/>
-      <c r="B37" s="111" t="n"/>
+      <c r="A37" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C37" s="22" t="n"/>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="n"/>
@@ -9530,8 +9665,12 @@
       <c r="J37" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="38" s="138" spans="1:10">
-      <c r="A38" s="111" t="n"/>
-      <c r="B38" s="111" t="n"/>
+      <c r="A38" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>134</v>
+      </c>
       <c r="C38" s="22" t="n"/>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="n"/>
@@ -9542,8 +9681,12 @@
       <c r="J38" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="39" s="138" spans="1:10">
-      <c r="A39" s="111" t="n"/>
-      <c r="B39" s="111" t="n"/>
+      <c r="A39" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C39" s="22" t="n"/>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="n"/>
@@ -9554,8 +9697,12 @@
       <c r="J39" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="40" s="138" spans="1:10">
-      <c r="A40" s="111" t="n"/>
-      <c r="B40" s="111" t="n"/>
+      <c r="A40" s="111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C40" s="22" t="n"/>
       <c r="D40" s="22" t="n"/>
       <c r="E40" s="22" t="n"/>
@@ -9566,8 +9713,12 @@
       <c r="J40" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="41" s="138" spans="1:10">
-      <c r="A41" s="111" t="n"/>
-      <c r="B41" s="111" t="n"/>
+      <c r="A41" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C41" s="22" t="n"/>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="n"/>
@@ -9578,8 +9729,12 @@
       <c r="J41" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="42" s="138" spans="1:10">
-      <c r="A42" s="111" t="n"/>
-      <c r="B42" s="111" t="n"/>
+      <c r="A42" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C42" s="22" t="n"/>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="n"/>
@@ -9590,8 +9745,12 @@
       <c r="J42" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="43" s="138" spans="1:10">
-      <c r="A43" s="111" t="n"/>
-      <c r="B43" s="111" t="n"/>
+      <c r="A43" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C43" s="22" t="n"/>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="n"/>
@@ -9602,8 +9761,12 @@
       <c r="J43" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="44" s="138" spans="1:10">
-      <c r="A44" s="111" t="n"/>
-      <c r="B44" s="111" t="n"/>
+      <c r="A44" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C44" s="22" t="n"/>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="n"/>
@@ -9614,8 +9777,12 @@
       <c r="J44" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="45" s="138" spans="1:10">
-      <c r="A45" s="111" t="n"/>
-      <c r="B45" s="111" t="n"/>
+      <c r="A45" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C45" s="22" t="n"/>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="n"/>
@@ -9626,8 +9793,12 @@
       <c r="J45" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="46" s="138" spans="1:10">
-      <c r="A46" s="111" t="n"/>
-      <c r="B46" s="111" t="n"/>
+      <c r="A46" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C46" s="22" t="n"/>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="n"/>
@@ -9638,8 +9809,12 @@
       <c r="J46" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="47" s="138" spans="1:10">
-      <c r="A47" s="111" t="n"/>
-      <c r="B47" s="111" t="n"/>
+      <c r="A47" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C47" s="22" t="n"/>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="n"/>
@@ -9650,8 +9825,12 @@
       <c r="J47" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="48" s="138" spans="1:10">
-      <c r="A48" s="111" t="n"/>
-      <c r="B48" s="111" t="n"/>
+      <c r="A48" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C48" s="22" t="n"/>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="n"/>
@@ -9662,8 +9841,12 @@
       <c r="J48" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="49" s="138" spans="1:10">
-      <c r="A49" s="111" t="n"/>
-      <c r="B49" s="111" t="n"/>
+      <c r="A49" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C49" s="22" t="n"/>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="n"/>
@@ -9674,8 +9857,12 @@
       <c r="J49" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="50" s="138" spans="1:10">
-      <c r="A50" s="111" t="n"/>
-      <c r="B50" s="111" t="n"/>
+      <c r="A50" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C50" s="22" t="n"/>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="n"/>
@@ -9686,8 +9873,12 @@
       <c r="J50" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="51" s="138" spans="1:10">
-      <c r="A51" s="111" t="n"/>
-      <c r="B51" s="111" t="n"/>
+      <c r="A51" s="111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C51" s="22" t="n"/>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="n"/>
@@ -9698,8 +9889,12 @@
       <c r="J51" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="52" s="138" spans="1:10">
-      <c r="A52" s="111" t="n"/>
-      <c r="B52" s="111" t="n"/>
+      <c r="A52" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="111" t="s">
+        <v>164</v>
+      </c>
       <c r="C52" s="22" t="n"/>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="n"/>
@@ -9710,8 +9905,12 @@
       <c r="J52" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="53" s="138" spans="1:10">
-      <c r="A53" s="111" t="n"/>
-      <c r="B53" s="111" t="n"/>
+      <c r="A53" s="111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="111" t="s">
+        <v>179</v>
+      </c>
       <c r="C53" s="22" t="n"/>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="n"/>
@@ -9722,8 +9921,12 @@
       <c r="J53" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="54" s="138" spans="1:10">
-      <c r="A54" s="111" t="n"/>
-      <c r="B54" s="111" t="n"/>
+      <c r="A54" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="111" t="s">
+        <v>183</v>
+      </c>
       <c r="C54" s="22" t="n"/>
       <c r="D54" s="22" t="n"/>
       <c r="E54" s="22" t="n"/>
@@ -9734,8 +9937,12 @@
       <c r="J54" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="55" s="138" spans="1:10">
-      <c r="A55" s="111" t="n"/>
-      <c r="B55" s="111" t="n"/>
+      <c r="A55" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="111" t="s">
+        <v>187</v>
+      </c>
       <c r="C55" s="22" t="n"/>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="n"/>
@@ -9758,7 +9965,9 @@
       <c r="J56" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="57" s="138" spans="1:10">
-      <c r="A57" s="111" t="n"/>
+      <c r="A57" s="147" t="s">
+        <v>191</v>
+      </c>
       <c r="B57" s="111" t="n"/>
       <c r="C57" s="22" t="n"/>
       <c r="D57" s="22" t="n"/>
@@ -9770,8 +9979,12 @@
       <c r="J57" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="58" s="138" spans="1:10">
-      <c r="A58" s="111" t="n"/>
-      <c r="B58" s="111" t="n"/>
+      <c r="A58" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="111" t="s">
+        <v>187</v>
+      </c>
       <c r="C58" s="22" t="n"/>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="n"/>
@@ -9782,8 +9995,12 @@
       <c r="J58" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="59" s="138" spans="1:10">
-      <c r="A59" s="111" t="n"/>
-      <c r="B59" s="111" t="n"/>
+      <c r="A59" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="111" t="s">
+        <v>196</v>
+      </c>
       <c r="C59" s="22" t="n"/>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="n"/>
@@ -9794,8 +10011,12 @@
       <c r="J59" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="60" s="138" spans="1:10">
-      <c r="A60" s="111" t="n"/>
-      <c r="B60" s="111" t="n"/>
+      <c r="A60" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C60" s="22" t="n"/>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="n"/>
@@ -9806,8 +10027,12 @@
       <c r="J60" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="61" s="138" spans="1:10">
-      <c r="A61" s="111" t="n"/>
-      <c r="B61" s="111" t="n"/>
+      <c r="A61" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="111" t="s">
+        <v>203</v>
+      </c>
       <c r="C61" s="22" t="n"/>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="n"/>
@@ -9818,8 +10043,12 @@
       <c r="J61" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="62" s="138" spans="1:10">
-      <c r="A62" s="111" t="n"/>
-      <c r="B62" s="111" t="n"/>
+      <c r="A62" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="111" t="s">
+        <v>209</v>
+      </c>
       <c r="C62" s="22" t="n"/>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="n"/>
@@ -9842,7 +10071,9 @@
       <c r="J63" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="64" s="138" spans="1:10">
-      <c r="A64" s="111" t="n"/>
+      <c r="A64" s="147" t="s">
+        <v>212</v>
+      </c>
       <c r="B64" s="111" t="n"/>
       <c r="C64" s="22" t="n"/>
       <c r="D64" s="22" t="n"/>
@@ -9854,8 +10085,12 @@
       <c r="J64" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="65" s="138" spans="1:10">
-      <c r="A65" s="111" t="n"/>
-      <c r="B65" s="111" t="n"/>
+      <c r="A65" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="111" t="s">
+        <v>187</v>
+      </c>
       <c r="C65" s="22" t="n"/>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="n"/>
@@ -9866,8 +10101,12 @@
       <c r="J65" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="66" s="138" spans="1:10">
-      <c r="A66" s="111" t="n"/>
-      <c r="B66" s="111" t="n"/>
+      <c r="A66" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="111" t="s">
+        <v>196</v>
+      </c>
       <c r="C66" s="22" t="n"/>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="n"/>
@@ -9878,8 +10117,12 @@
       <c r="J66" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="67" s="138" spans="1:10">
-      <c r="A67" s="111" t="n"/>
-      <c r="B67" s="111" t="n"/>
+      <c r="A67" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C67" s="22" t="n"/>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="n"/>
@@ -9890,8 +10133,12 @@
       <c r="J67" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="68" s="138" spans="1:10">
-      <c r="A68" s="111" t="n"/>
-      <c r="B68" s="111" t="n"/>
+      <c r="A68" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="111" t="s">
+        <v>203</v>
+      </c>
       <c r="C68" s="22" t="n"/>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="n"/>
@@ -9914,7 +10161,9 @@
       <c r="J69" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="70" s="138" spans="1:10">
-      <c r="A70" s="111" t="n"/>
+      <c r="A70" s="147" t="s">
+        <v>225</v>
+      </c>
       <c r="B70" s="111" t="n"/>
       <c r="C70" s="22" t="n"/>
       <c r="D70" s="22" t="n"/>
@@ -9926,8 +10175,12 @@
       <c r="J70" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="71" s="138" spans="1:10">
-      <c r="A71" s="111" t="n"/>
-      <c r="B71" s="111" t="n"/>
+      <c r="A71" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="111" t="s">
+        <v>187</v>
+      </c>
       <c r="C71" s="22" t="n"/>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="n"/>
@@ -9938,8 +10191,12 @@
       <c r="J71" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="72" s="138" spans="1:10">
-      <c r="A72" s="111" t="n"/>
-      <c r="B72" s="111" t="n"/>
+      <c r="A72" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="111" t="s">
+        <v>196</v>
+      </c>
       <c r="C72" s="22" t="n"/>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="n"/>
@@ -9950,8 +10207,12 @@
       <c r="J72" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="73" s="138" spans="1:10">
-      <c r="A73" s="111" t="n"/>
-      <c r="B73" s="111" t="n"/>
+      <c r="A73" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C73" s="22" t="n"/>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="n"/>
@@ -9962,8 +10223,12 @@
       <c r="J73" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="74" s="138" spans="1:10">
-      <c r="A74" s="111" t="n"/>
-      <c r="B74" s="111" t="n"/>
+      <c r="A74" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" s="111" t="s">
+        <v>203</v>
+      </c>
       <c r="C74" s="22" t="n"/>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="n"/>
@@ -9986,7 +10251,9 @@
       <c r="J75" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="76" s="138" spans="1:10">
-      <c r="A76" s="111" t="n"/>
+      <c r="A76" s="147" t="s">
+        <v>232</v>
+      </c>
       <c r="B76" s="111" t="n"/>
       <c r="C76" s="22" t="n"/>
       <c r="D76" s="22" t="n"/>
@@ -9998,8 +10265,12 @@
       <c r="J76" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="77" s="138" spans="1:10">
-      <c r="A77" s="111" t="n"/>
-      <c r="B77" s="111" t="n"/>
+      <c r="A77" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="111" t="s">
+        <v>235</v>
+      </c>
       <c r="C77" s="22" t="n"/>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="n"/>
@@ -10010,8 +10281,12 @@
       <c r="J77" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="78" s="138" spans="1:10">
-      <c r="A78" s="111" t="n"/>
-      <c r="B78" s="111" t="n"/>
+      <c r="A78" s="111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="111" t="s">
+        <v>235</v>
+      </c>
       <c r="C78" s="22" t="n"/>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="n"/>
@@ -10022,8 +10297,12 @@
       <c r="J78" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="79" s="138" spans="1:10">
-      <c r="A79" s="111" t="n"/>
-      <c r="B79" s="111" t="n"/>
+      <c r="A79" s="111" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="111" t="s">
+        <v>196</v>
+      </c>
       <c r="C79" s="22" t="n"/>
       <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="n"/>
@@ -10034,8 +10313,12 @@
       <c r="J79" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="80" s="138" spans="1:10">
-      <c r="A80" s="111" t="n"/>
-      <c r="B80" s="111" t="n"/>
+      <c r="A80" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="111" t="s">
+        <v>241</v>
+      </c>
       <c r="C80" s="22" t="n"/>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="n"/>
@@ -10046,8 +10329,12 @@
       <c r="J80" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="81" s="138" spans="1:10">
-      <c r="A81" s="111" t="n"/>
-      <c r="B81" s="111" t="n"/>
+      <c r="A81" s="111" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C81" s="22" t="n"/>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="n"/>
@@ -10058,8 +10345,12 @@
       <c r="J81" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="82" s="138" spans="1:10">
-      <c r="A82" s="111" t="n"/>
-      <c r="B82" s="111" t="n"/>
+      <c r="A82" s="111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="111" t="s">
+        <v>203</v>
+      </c>
       <c r="C82" s="22" t="n"/>
       <c r="D82" s="22" t="n"/>
       <c r="E82" s="22" t="n"/>
@@ -10070,7 +10361,9 @@
       <c r="J82" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="83" s="138" spans="1:10">
-      <c r="A83" s="111" t="n"/>
+      <c r="A83" s="111" t="s">
+        <v>247</v>
+      </c>
       <c r="B83" s="111" t="n"/>
       <c r="C83" s="22" t="n"/>
       <c r="D83" s="22" t="n"/>
@@ -10094,7 +10387,9 @@
       <c r="J84" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="85" s="138" spans="1:10">
-      <c r="A85" s="111" t="n"/>
+      <c r="A85" s="147" t="s">
+        <v>249</v>
+      </c>
       <c r="B85" s="111" t="n"/>
       <c r="C85" s="22" t="n"/>
       <c r="D85" s="22" t="n"/>
@@ -10106,8 +10401,12 @@
       <c r="J85" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="86" s="138" spans="1:10">
-      <c r="A86" s="111" t="n"/>
-      <c r="B86" s="111" t="n"/>
+      <c r="A86" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="111" t="s">
+        <v>203</v>
+      </c>
       <c r="C86" s="22" t="n"/>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="n"/>
@@ -10118,8 +10417,12 @@
       <c r="J86" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="87" s="138" spans="1:10">
-      <c r="A87" s="111" t="n"/>
-      <c r="B87" s="111" t="n"/>
+      <c r="A87" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="111" t="s">
+        <v>256</v>
+      </c>
       <c r="C87" s="22" t="n"/>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="n"/>
@@ -10130,8 +10433,12 @@
       <c r="J87" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="88" s="138" spans="1:10">
-      <c r="A88" s="111" t="n"/>
-      <c r="B88" s="111" t="n"/>
+      <c r="A88" s="111" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" s="111" t="s">
+        <v>261</v>
+      </c>
       <c r="C88" s="22" t="n"/>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="n"/>
@@ -10142,8 +10449,12 @@
       <c r="J88" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="89" s="138" spans="1:10">
-      <c r="A89" s="111" t="n"/>
-      <c r="B89" s="111" t="n"/>
+      <c r="A89" s="111" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="111" t="s">
+        <v>263</v>
+      </c>
       <c r="C89" s="22" t="n"/>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="n"/>
@@ -10154,8 +10465,12 @@
       <c r="J89" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="90" s="138" spans="1:10">
-      <c r="A90" s="111" t="n"/>
-      <c r="B90" s="111" t="n"/>
+      <c r="A90" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" s="111" t="s">
+        <v>267</v>
+      </c>
       <c r="C90" s="22" t="n"/>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="n"/>
@@ -10166,8 +10481,12 @@
       <c r="J90" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="91" s="138" spans="1:10">
-      <c r="A91" s="111" t="n"/>
-      <c r="B91" s="111" t="n"/>
+      <c r="A91" s="111" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="111" t="s">
+        <v>272</v>
+      </c>
       <c r="C91" s="22" t="n"/>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="n"/>
@@ -10178,8 +10497,12 @@
       <c r="J91" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="92" s="138" spans="1:10">
-      <c r="A92" s="111" t="n"/>
-      <c r="B92" s="111" t="n"/>
+      <c r="A92" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="111" t="s">
+        <v>199</v>
+      </c>
       <c r="C92" s="22" t="n"/>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="n"/>
@@ -10190,8 +10513,12 @@
       <c r="J92" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="93" s="138" spans="1:10">
-      <c r="A93" s="111" t="n"/>
-      <c r="B93" s="111" t="n"/>
+      <c r="A93" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="111" t="s">
+        <v>278</v>
+      </c>
       <c r="C93" s="22" t="n"/>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="n"/>
@@ -10202,8 +10529,12 @@
       <c r="J93" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="94" s="138" spans="1:10">
-      <c r="A94" s="111" t="n"/>
-      <c r="B94" s="111" t="n"/>
+      <c r="A94" s="111" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" s="111" t="s">
+        <v>278</v>
+      </c>
       <c r="C94" s="22" t="n"/>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="n"/>
@@ -10214,8 +10545,12 @@
       <c r="J94" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="95" s="138" spans="1:10">
-      <c r="A95" s="111" t="n"/>
-      <c r="B95" s="111" t="n"/>
+      <c r="A95" s="111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" s="111" t="s">
+        <v>282</v>
+      </c>
       <c r="C95" s="22" t="n"/>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="n"/>
@@ -10226,8 +10561,12 @@
       <c r="J95" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="96" s="138" spans="1:10">
-      <c r="A96" s="111" t="n"/>
-      <c r="B96" s="111" t="n"/>
+      <c r="A96" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="111" t="s">
+        <v>285</v>
+      </c>
       <c r="C96" s="22" t="n"/>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="n"/>
@@ -10238,8 +10577,12 @@
       <c r="J96" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="97" s="138" spans="1:10">
-      <c r="A97" s="111" t="n"/>
-      <c r="B97" s="111" t="n"/>
+      <c r="A97" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="111" t="s">
+        <v>288</v>
+      </c>
       <c r="C97" s="22" t="n"/>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="n"/>
@@ -10250,8 +10593,12 @@
       <c r="J97" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="98" s="138" spans="1:10">
-      <c r="A98" s="111" t="n"/>
-      <c r="B98" s="111" t="n"/>
+      <c r="A98" s="111" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="111" t="s">
+        <v>290</v>
+      </c>
       <c r="C98" s="22" t="n"/>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="n"/>
@@ -10262,8 +10609,12 @@
       <c r="J98" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="99" s="138" spans="1:10">
-      <c r="A99" s="111" t="n"/>
-      <c r="B99" s="111" t="n"/>
+      <c r="A99" s="111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B99" s="111" t="s">
+        <v>292</v>
+      </c>
       <c r="C99" s="22" t="n"/>
       <c r="D99" s="22" t="n"/>
       <c r="E99" s="22" t="n"/>
@@ -10274,8 +10625,12 @@
       <c r="J99" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="100" s="138" spans="1:10">
-      <c r="A100" s="111" t="n"/>
-      <c r="B100" s="111" t="n"/>
+      <c r="A100" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="111" t="s">
+        <v>292</v>
+      </c>
       <c r="C100" s="22" t="n"/>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="n"/>
@@ -10286,8 +10641,12 @@
       <c r="J100" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="101" s="138" spans="1:10">
-      <c r="A101" s="111" t="n"/>
-      <c r="B101" s="111" t="n"/>
+      <c r="A101" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" s="111" t="s">
+        <v>296</v>
+      </c>
       <c r="C101" s="22" t="n"/>
       <c r="D101" s="22" t="n"/>
       <c r="E101" s="22" t="n"/>
@@ -10298,8 +10657,12 @@
       <c r="J101" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="102" s="138" spans="1:10">
-      <c r="A102" s="111" t="n"/>
-      <c r="B102" s="111" t="n"/>
+      <c r="A102" s="111" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" s="111" t="s">
+        <v>296</v>
+      </c>
       <c r="C102" s="22" t="n"/>
       <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="n"/>
@@ -10310,8 +10673,12 @@
       <c r="J102" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="103" s="138" spans="1:10">
-      <c r="A103" s="111" t="n"/>
-      <c r="B103" s="111" t="n"/>
+      <c r="A103" s="111" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="111" t="s">
+        <v>301</v>
+      </c>
       <c r="C103" s="22" t="n"/>
       <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="n"/>
@@ -10322,8 +10689,12 @@
       <c r="J103" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="104" s="138" spans="1:10">
-      <c r="A104" s="111" t="n"/>
-      <c r="B104" s="111" t="n"/>
+      <c r="A104" s="111" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" s="111" t="s">
+        <v>301</v>
+      </c>
       <c r="C104" s="22" t="n"/>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="n"/>
@@ -10334,8 +10705,12 @@
       <c r="J104" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="105" s="138" spans="1:10">
-      <c r="A105" s="111" t="n"/>
-      <c r="B105" s="111" t="n"/>
+      <c r="A105" s="111" t="s">
+        <v>307</v>
+      </c>
+      <c r="B105" s="111" t="s">
+        <v>308</v>
+      </c>
       <c r="C105" s="22" t="n"/>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="n"/>
@@ -10346,8 +10721,12 @@
       <c r="J105" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="106" s="138" spans="1:10">
-      <c r="A106" s="111" t="n"/>
-      <c r="B106" s="111" t="n"/>
+      <c r="A106" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B106" s="111" t="s">
+        <v>310</v>
+      </c>
       <c r="C106" s="22" t="n"/>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="n"/>
@@ -10358,8 +10737,12 @@
       <c r="J106" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="107" s="138" spans="1:10">
-      <c r="A107" s="111" t="n"/>
-      <c r="B107" s="111" t="n"/>
+      <c r="A107" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B107" s="111" t="s">
+        <v>310</v>
+      </c>
       <c r="C107" s="22" t="n"/>
       <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="n"/>
@@ -10370,8 +10753,12 @@
       <c r="J107" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="108" s="138" spans="1:10">
-      <c r="A108" s="111" t="n"/>
-      <c r="B108" s="111" t="n"/>
+      <c r="A108" s="111" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="111" t="s">
+        <v>314</v>
+      </c>
       <c r="C108" s="22" t="n"/>
       <c r="D108" s="22" t="n"/>
       <c r="E108" s="22" t="n"/>
@@ -10382,8 +10769,12 @@
       <c r="J108" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="109" s="138" spans="1:10">
-      <c r="A109" s="111" t="n"/>
-      <c r="B109" s="111" t="n"/>
+      <c r="A109" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" s="111" t="s">
+        <v>310</v>
+      </c>
       <c r="C109" s="22" t="n"/>
       <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="n"/>
@@ -10394,8 +10785,12 @@
       <c r="J109" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="110" s="138" spans="1:10">
-      <c r="A110" s="111" t="n"/>
-      <c r="B110" s="111" t="n"/>
+      <c r="A110" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="B110" s="111" t="s">
+        <v>314</v>
+      </c>
       <c r="C110" s="22" t="n"/>
       <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="n"/>
@@ -10406,8 +10801,12 @@
       <c r="J110" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="111" s="138" spans="1:10">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="22" t="n"/>
+      <c r="A111" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="C111" s="22" t="n"/>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="n"/>
@@ -10418,8 +10817,12 @@
       <c r="J111" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="112" s="138" spans="1:10">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="22" t="n"/>
+      <c r="A112" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="C112" s="22" t="n"/>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="n"/>
@@ -10430,8 +10833,12 @@
       <c r="J112" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="113" s="138" spans="1:10">
-      <c r="A113" s="22" t="n"/>
-      <c r="B113" s="22" t="n"/>
+      <c r="A113" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>310</v>
+      </c>
       <c r="C113" s="22" t="n"/>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="n"/>
@@ -10441,24 +10848,138 @@
       <c r="I113" s="22" t="n"/>
       <c r="J113" s="22" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="114" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="115" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="116" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="117" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="118" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="119" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="120" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="121" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="122" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="123" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="124" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="125" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="126" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="127" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="128" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="129" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="114" s="138" spans="1:10">
+      <c r="A114" t="s">
+        <v>322</v>
+      </c>
+      <c r="B114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="115" s="138" spans="1:10">
+      <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="116" s="138" spans="1:10">
+      <c r="A116" t="s">
+        <v>324</v>
+      </c>
+      <c r="B116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="117" s="138" spans="1:10">
+      <c r="A117" t="s">
+        <v>325</v>
+      </c>
+      <c r="B117" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="118" s="138" spans="1:10">
+      <c r="A118" t="s">
+        <v>326</v>
+      </c>
+      <c r="B118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="119" s="138" spans="1:10">
+      <c r="A119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="120" s="138" spans="1:10">
+      <c r="A120" t="s">
+        <v>328</v>
+      </c>
+      <c r="B120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="121" s="138" spans="1:10">
+      <c r="A121" t="s">
+        <v>329</v>
+      </c>
+      <c r="B121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="122" s="138" spans="1:10">
+      <c r="A122" t="s">
+        <v>330</v>
+      </c>
+      <c r="B122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="123" s="138" spans="1:10">
+      <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="124" s="138" spans="1:10">
+      <c r="A124" t="s">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="125" s="138" spans="1:10">
+      <c r="A125" t="s">
+        <v>333</v>
+      </c>
+      <c r="B125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="126" s="138" spans="1:10">
+      <c r="A126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="127" s="138" spans="1:10">
+      <c r="A127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="128" s="138" spans="1:10">
+      <c r="A128" t="s">
+        <v>336</v>
+      </c>
+      <c r="B128" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="129" s="138" spans="1:10">
+      <c r="A129" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" t="s">
+        <v>337</v>
+      </c>
+    </row>
     <row customHeight="1" ht="15" r="130" s="138" spans="1:10"/>
-    <row customHeight="1" ht="15" r="131" s="138" spans="1:10"/>
+    <row customHeight="1" ht="15" r="131" s="138" spans="1:10">
+      <c r="A131" s="148" t="n"/>
+    </row>
     <row customHeight="1" ht="15" r="132" s="138" spans="1:10"/>
     <row customHeight="1" ht="15" r="133" s="138" spans="1:10"/>
     <row customHeight="1" ht="15" r="134" s="138" spans="1:10"/>

--- a/AS1_genererad.xlsx
+++ b/AS1_genererad.xlsx
@@ -294,7 +294,7 @@
     <t>Generering</t>
   </si>
   <si>
-    <t>bsmela</t>
+    <t>bemsla</t>
   </si>
   <si>
     <t>Uppdaterad:</t>
@@ -5891,10 +5891,10 @@
   <dimension ref="A1:Q857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C410" xSplit="2" ySplit="6"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C413" xSplit="2" ySplit="6"/>
       <selection activeCell="C1" pane="topRight" sqref="C1"/>
       <selection activeCell="A7" pane="bottomLeft" sqref="A7"/>
-      <selection activeCell="A433" pane="bottomRight" sqref="A433:XFD857"/>
+      <selection activeCell="F428" pane="bottomRight" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
